--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_0_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_0_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3556100.033328696</v>
+        <v>3556100.033328617</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27577.79236969288</v>
+        <v>5866134.12125385</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27577.79236969288</v>
+        <v>5866134.12125385</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63540.76350752339</v>
+        <v>3969158.086170787</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63540.76350752339</v>
+        <v>3969158.086170787</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494032414.622684</v>
+        <v>56368640.01428528</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>399.7039666875079</v>
+        <v>399.7654124880212</v>
       </c>
       <c r="H2" t="n">
-        <v>367.1270004120701</v>
+        <v>366.9469005068793</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.043043025171778e-11</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S2" t="n">
         <v>403.8813838827249</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>323.6036490825745</v>
+        <v>99.19532782023045</v>
       </c>
       <c r="H3" t="n">
         <v>311.5399173751003</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>143.5881783441787</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>400.0698408922622</v>
       </c>
       <c r="V3" t="n">
-        <v>414.5106671915202</v>
+        <v>14.51066719152016</v>
       </c>
       <c r="W3" t="n">
-        <v>357.5732267456324</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
         <v>419.8627394453875</v>
@@ -907,7 +907,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D5" t="n">
-        <v>410.3391557398498</v>
+        <v>410.1590558346591</v>
       </c>
       <c r="E5" t="n">
         <v>404.3632896068686</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-6.656226269648242e-12</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S5" t="n">
         <v>403.8813838827249</v>
@@ -964,7 +964,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W5" t="n">
-        <v>638.3120301804341</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X5" t="n">
         <v>592.2818334606677</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>361.0999124455193</v>
@@ -989,19 +989,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>279.4023759130332</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>151.2576409225277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>311.5399173751003</v>
       </c>
       <c r="I6" t="n">
-        <v>143.5881783441787</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>396.7486425760044</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06984089226222068</v>
+        <v>400.0698408922622</v>
       </c>
       <c r="V6" t="n">
-        <v>14.51066719152016</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W6" t="n">
-        <v>432.3731429098285</v>
+        <v>32.37314290982852</v>
       </c>
       <c r="X6" t="n">
         <v>419.8627394453875</v>
@@ -1156,7 +1156,7 @@
         <v>399.7654124880212</v>
       </c>
       <c r="H8" t="n">
-        <v>367.1270004120701</v>
+        <v>366.9469005068793</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S8" t="n">
         <v>403.8813838827249</v>
@@ -1204,7 +1204,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>592.2203876601544</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y8" t="n">
         <v>511.3174326828064</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>326.6508515024946</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
         <v>361.0999124455193</v>
@@ -1226,19 +1226,19 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
-        <v>342.6720972219126</v>
+        <v>294.8458192667062</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>323.6036490825745</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>311.5399173751003</v>
       </c>
       <c r="I9" t="n">
-        <v>143.5881783441787</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>426.8908395872529</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>396.7486425760044</v>
       </c>
       <c r="U9" t="n">
         <v>0.06984089226222068</v>
       </c>
       <c r="V9" t="n">
-        <v>14.51066719152016</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
         <v>432.3731429098285</v>
@@ -1375,25 +1375,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>481.9993129552253</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
-        <v>449.4745782426447</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896065194</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8896287076626</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G11" t="n">
-        <v>399.765412487672</v>
+        <v>399.7654124880212</v>
       </c>
       <c r="H11" t="n">
-        <v>367.1270004117209</v>
+        <v>367.1270004120701</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,28 +1423,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1186541043271063</v>
+        <v>-5.402398528531193e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>403.8813838823756</v>
+        <v>403.8199380822149</v>
       </c>
       <c r="T11" t="n">
-        <v>569.2007777081142</v>
+        <v>569.2007777084634</v>
       </c>
       <c r="U11" t="n">
-        <v>648.9019397643418</v>
+        <v>648.9019397646911</v>
       </c>
       <c r="V11" t="n">
-        <v>629.8510241664746</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W11" t="n">
-        <v>638.3734759805983</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X11" t="n">
-        <v>592.101733560007</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>511.3174326824571</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>136.0829839493097</v>
       </c>
       <c r="G12" t="n">
         <v>323.6036490825745</v>
@@ -1517,13 +1517,13 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W12" t="n">
-        <v>169.0647340930041</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X12" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y12" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1615,7 +1615,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
-        <v>449.4745782429939</v>
+        <v>449.2944783378032</v>
       </c>
       <c r="D14" t="n">
         <v>410.3391557398498</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S14" t="n">
-        <v>403.8199380822113</v>
+        <v>403.8813838827249</v>
       </c>
       <c r="T14" t="n">
         <v>569.2007777084634</v>
@@ -1691,28 +1691,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>315.5565566459774</v>
+        <v>305.9174089264896</v>
       </c>
       <c r="C15" t="n">
-        <v>292.09991244517</v>
+        <v>292.0999124455193</v>
       </c>
       <c r="D15" t="n">
-        <v>278.9376868973534</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E15" t="n">
-        <v>273.6720972215634</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F15" t="n">
-        <v>270.6362423375276</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G15" t="n">
-        <v>254.6036490822253</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H15" t="n">
-        <v>242.5399173747511</v>
+        <v>242.5399173751004</v>
       </c>
       <c r="I15" t="n">
-        <v>74.58817834382944</v>
+        <v>74.58817834417869</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>345.6614576693885</v>
+        <v>345.6614576697377</v>
       </c>
       <c r="S15" t="n">
-        <v>357.8908395869036</v>
+        <v>357.8908395872529</v>
       </c>
       <c r="T15" t="n">
-        <v>327.7486425756551</v>
+        <v>327.7486425760044</v>
       </c>
       <c r="U15" t="n">
-        <v>331.069840891913</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V15" t="n">
-        <v>335.8715194796605</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W15" t="n">
-        <v>363.3731429094793</v>
+        <v>363.3731429098285</v>
       </c>
       <c r="X15" t="n">
-        <v>350.8627394450383</v>
+        <v>350.8627394453875</v>
       </c>
       <c r="Y15" t="n">
-        <v>330.3913927657851</v>
+        <v>330.3913927661343</v>
       </c>
     </row>
     <row r="16">
@@ -1797,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>11.47913445688081</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>88.32595602663162</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>57.33474614110283</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>157.1398366249576</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E17" t="n">
-        <v>404.3632896068686</v>
+        <v>404.1831897016777</v>
       </c>
       <c r="F17" t="n">
-        <v>404.8281829074983</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
         <v>399.7654124880212</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S17" t="n">
         <v>403.8813838827249</v>
@@ -1928,28 +1928,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>315.5565566459774</v>
+        <v>315.5565566463266</v>
       </c>
       <c r="C18" t="n">
-        <v>292.09991244517</v>
+        <v>292.0999124455193</v>
       </c>
       <c r="D18" t="n">
-        <v>278.9376868973534</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E18" t="n">
-        <v>264.0329495100547</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F18" t="n">
-        <v>270.6362423375276</v>
+        <v>270.6362423378768</v>
       </c>
       <c r="G18" t="n">
-        <v>254.6036490822253</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H18" t="n">
-        <v>242.5399173747511</v>
+        <v>242.5399173751004</v>
       </c>
       <c r="I18" t="n">
-        <v>74.58817834382944</v>
+        <v>74.58817834417869</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,28 +1976,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>345.6614576693885</v>
+        <v>336.0223099499003</v>
       </c>
       <c r="S18" t="n">
-        <v>357.8908395869036</v>
+        <v>357.8908395872529</v>
       </c>
       <c r="T18" t="n">
-        <v>327.7486425756551</v>
+        <v>327.7486425760044</v>
       </c>
       <c r="U18" t="n">
-        <v>331.069840891913</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V18" t="n">
-        <v>345.5106671911709</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>363.3731429094793</v>
+        <v>363.3731429098285</v>
       </c>
       <c r="X18" t="n">
-        <v>350.8627394450383</v>
+        <v>350.8627394453875</v>
       </c>
       <c r="Y18" t="n">
-        <v>330.3913927657851</v>
+        <v>330.3913927661343</v>
       </c>
     </row>
     <row r="19">
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>11.47913445653157</v>
+        <v>11.47913445688081</v>
       </c>
       <c r="L19" t="n">
-        <v>88.32595602628237</v>
+        <v>88.32595602663156</v>
       </c>
       <c r="M19" t="n">
-        <v>57.33474614214364</v>
+        <v>57.33474614110288</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>399.7654124880212</v>
       </c>
       <c r="H20" t="n">
-        <v>367.0655546115567</v>
+        <v>367.1270004120701</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>403.8813838827249</v>
+        <v>403.8199380822149</v>
       </c>
       <c r="T20" t="n">
         <v>569.2007777084634</v>
@@ -2165,28 +2165,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>315.5565566459774</v>
+        <v>315.5565566463266</v>
       </c>
       <c r="C21" t="n">
-        <v>292.09991244517</v>
+        <v>292.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>278.9376868973534</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>273.6720972215634</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>270.6362423375276</v>
+        <v>270.6362423378768</v>
       </c>
       <c r="G21" t="n">
-        <v>254.6036490822253</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H21" t="n">
-        <v>242.5399173747511</v>
+        <v>242.5399173751004</v>
       </c>
       <c r="I21" t="n">
-        <v>74.58817834382944</v>
+        <v>74.58817834417869</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,28 +2213,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>345.6614576693885</v>
+        <v>336.0223099499003</v>
       </c>
       <c r="S21" t="n">
-        <v>357.8908395869036</v>
+        <v>357.8908395872529</v>
       </c>
       <c r="T21" t="n">
-        <v>327.7486425756551</v>
+        <v>327.7486425760044</v>
       </c>
       <c r="U21" t="n">
-        <v>331.069840891913</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V21" t="n">
-        <v>345.5106671911709</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>353.7339951980838</v>
+        <v>363.3731429098285</v>
       </c>
       <c r="X21" t="n">
-        <v>350.8627394450383</v>
+        <v>350.8627394453875</v>
       </c>
       <c r="Y21" t="n">
-        <v>330.3913927657851</v>
+        <v>330.3913927661343</v>
       </c>
     </row>
     <row r="22">
@@ -2271,16 +2271,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>11.47913445653157</v>
+        <v>11.47913445688081</v>
       </c>
       <c r="L22" t="n">
-        <v>88.32595602628237</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>145.6607021677345</v>
       </c>
       <c r="N22" t="n">
-        <v>57.33474614214364</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>399.7654124880212</v>
       </c>
       <c r="H23" t="n">
-        <v>367.1270004120701</v>
+        <v>366.9469005068793</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S23" t="n">
-        <v>403.8199380822113</v>
+        <v>403.8813838827249</v>
       </c>
       <c r="T23" t="n">
         <v>569.2007777084634</v>
@@ -2402,28 +2402,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>315.5565566459774</v>
+        <v>315.5565566463266</v>
       </c>
       <c r="C24" t="n">
-        <v>292.09991244517</v>
+        <v>292.0999124455193</v>
       </c>
       <c r="D24" t="n">
-        <v>278.9376868973534</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>273.6720972215634</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F24" t="n">
-        <v>270.6362423375276</v>
+        <v>260.9970946180399</v>
       </c>
       <c r="G24" t="n">
-        <v>254.6036490822253</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H24" t="n">
-        <v>242.5399173747511</v>
+        <v>242.5399173751003</v>
       </c>
       <c r="I24" t="n">
-        <v>74.58817834382944</v>
+        <v>74.58817834417869</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,28 +2450,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>345.6614576693885</v>
+        <v>345.6614576697377</v>
       </c>
       <c r="S24" t="n">
-        <v>348.251691875395</v>
+        <v>357.8908395872529</v>
       </c>
       <c r="T24" t="n">
-        <v>327.7486425756551</v>
+        <v>327.7486425760044</v>
       </c>
       <c r="U24" t="n">
-        <v>331.069840891913</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V24" t="n">
-        <v>345.5106671911709</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>363.3731429094793</v>
+        <v>363.3731429098285</v>
       </c>
       <c r="X24" t="n">
-        <v>350.8627394450383</v>
+        <v>350.8627394453875</v>
       </c>
       <c r="Y24" t="n">
-        <v>330.3913927657851</v>
+        <v>330.3913927661343</v>
       </c>
     </row>
     <row r="25">
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>11.47913445653157</v>
+        <v>11.4791344568808</v>
       </c>
       <c r="L25" t="n">
-        <v>88.32595602628231</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>57.33474614214369</v>
+        <v>145.6607021677345</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
-        <v>404.7095288028439</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
         <v>399.7654124880212</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1186541046763523</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="S26" t="n">
-        <v>403.8813838827249</v>
+        <v>403.8199380822113</v>
       </c>
       <c r="T26" t="n">
         <v>569.2007777084634</v>
@@ -2651,7 +2651,7 @@
         <v>273.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>260.9970946180401</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G27" t="n">
         <v>254.6036490825745</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>345.6614576697377</v>
+        <v>336.0223099499003</v>
       </c>
       <c r="S27" t="n">
         <v>357.8908395872529</v>
@@ -2748,13 +2748,13 @@
         <v>11.47913445688081</v>
       </c>
       <c r="L28" t="n">
-        <v>88.32595602663156</v>
+        <v>88.32595602663162</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>57.33474614110283</v>
       </c>
       <c r="N28" t="n">
-        <v>57.33474614110291</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782429939</v>
+        <v>449.2944783378032</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
@@ -2815,7 +2815,7 @@
         <v>399.7654124880212</v>
       </c>
       <c r="H29" t="n">
-        <v>367.0655546115779</v>
+        <v>367.1270004120701</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S29" t="n">
         <v>403.8813838827249</v>
@@ -2876,22 +2876,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>315.5565566463121</v>
+        <v>315.5565566463119</v>
       </c>
       <c r="C30" t="n">
         <v>292.0999124455047</v>
       </c>
       <c r="D30" t="n">
-        <v>278.9376868976881</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E30" t="n">
-        <v>273.6720972218981</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F30" t="n">
-        <v>270.6362423378623</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G30" t="n">
-        <v>254.60364908256</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H30" t="n">
         <v>242.5399173750858</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>345.6614576697232</v>
+        <v>336.0223099501164</v>
       </c>
       <c r="S30" t="n">
         <v>357.8908395872383</v>
       </c>
       <c r="T30" t="n">
-        <v>327.7486425759898</v>
+        <v>327.7486425759897</v>
       </c>
       <c r="U30" t="n">
-        <v>331.0698408922477</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V30" t="n">
-        <v>345.5106671915056</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>353.7339951903448</v>
+        <v>363.373142909814</v>
       </c>
       <c r="X30" t="n">
         <v>350.862739445373</v>
@@ -2985,10 +2985,10 @@
         <v>11.47913445686626</v>
       </c>
       <c r="L31" t="n">
-        <v>88.32595602661706</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>57.33474614114622</v>
+        <v>145.6607021677634</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.7095288028439</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
         <v>399.7654124880212</v>
       </c>
       <c r="H32" t="n">
-        <v>367.1270004120701</v>
+        <v>366.9469005068793</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>315.5565566463121</v>
+        <v>315.5565566463266</v>
       </c>
       <c r="C33" t="n">
-        <v>292.0999124455047</v>
+        <v>292.0999124455193</v>
       </c>
       <c r="D33" t="n">
-        <v>278.9376868976881</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E33" t="n">
-        <v>273.6720972218981</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F33" t="n">
-        <v>270.6362423378623</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G33" t="n">
-        <v>254.60364908256</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H33" t="n">
-        <v>242.5399173750858</v>
+        <v>242.5399173751003</v>
       </c>
       <c r="I33" t="n">
-        <v>74.58817834416413</v>
+        <v>74.58817834417869</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,28 +3161,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>345.6614576697232</v>
+        <v>336.0223099499003</v>
       </c>
       <c r="S33" t="n">
-        <v>357.8908395872383</v>
+        <v>357.8908395872529</v>
       </c>
       <c r="T33" t="n">
-        <v>327.7486425759898</v>
+        <v>327.7486425760044</v>
       </c>
       <c r="U33" t="n">
-        <v>331.0698408922477</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V33" t="n">
-        <v>345.5106671915056</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>353.7339951903376</v>
+        <v>363.3731429098285</v>
       </c>
       <c r="X33" t="n">
-        <v>350.862739445373</v>
+        <v>350.8627394453875</v>
       </c>
       <c r="Y33" t="n">
-        <v>330.3913927661198</v>
+        <v>330.3913927661343</v>
       </c>
     </row>
     <row r="34">
@@ -3219,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>11.47913445686626</v>
+        <v>11.47913445688081</v>
       </c>
       <c r="L34" t="n">
-        <v>88.32595602661706</v>
+        <v>88.32595602663156</v>
       </c>
       <c r="M34" t="n">
-        <v>57.33474614114622</v>
+        <v>57.33474614110288</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>399.7039666875183</v>
+        <v>399.5853125828305</v>
       </c>
       <c r="H35" t="n">
         <v>367.1270004120701</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S35" t="n">
         <v>403.8813838827249</v>
@@ -3350,28 +3350,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>315.5565566463121</v>
+        <v>315.5565566463266</v>
       </c>
       <c r="C36" t="n">
-        <v>292.0999124455047</v>
+        <v>292.0999124455193</v>
       </c>
       <c r="D36" t="n">
-        <v>278.9376868976881</v>
+        <v>278.9376868977026</v>
       </c>
       <c r="E36" t="n">
-        <v>273.6720972218981</v>
+        <v>273.6720972219126</v>
       </c>
       <c r="F36" t="n">
-        <v>270.6362423378623</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G36" t="n">
-        <v>254.60364908256</v>
+        <v>254.6036490825745</v>
       </c>
       <c r="H36" t="n">
-        <v>242.5399173750858</v>
+        <v>242.5399173751003</v>
       </c>
       <c r="I36" t="n">
-        <v>74.58817834416413</v>
+        <v>74.58817834417869</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,28 +3398,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>345.6614576697232</v>
+        <v>336.0223099499003</v>
       </c>
       <c r="S36" t="n">
-        <v>348.251691867747</v>
+        <v>357.8908395872529</v>
       </c>
       <c r="T36" t="n">
-        <v>327.7486425759898</v>
+        <v>327.7486425760044</v>
       </c>
       <c r="U36" t="n">
-        <v>331.0698408922477</v>
+        <v>331.0698408922622</v>
       </c>
       <c r="V36" t="n">
-        <v>345.5106671915056</v>
+        <v>345.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>363.373142909814</v>
+        <v>363.3731429098285</v>
       </c>
       <c r="X36" t="n">
-        <v>350.862739445373</v>
+        <v>350.8627394453875</v>
       </c>
       <c r="Y36" t="n">
-        <v>330.3913927661198</v>
+        <v>330.3913927661343</v>
       </c>
     </row>
     <row r="37">
@@ -3456,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>11.47913445686626</v>
+        <v>11.47913445688081</v>
       </c>
       <c r="L37" t="n">
-        <v>88.32595602661706</v>
+        <v>88.32595602663156</v>
       </c>
       <c r="M37" t="n">
-        <v>57.33474614114622</v>
+        <v>57.33474614110288</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>410.3391557398498</v>
+        <v>410.1590558346591</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.1186541046763523</v>
       </c>
       <c r="S38" t="n">
-        <v>403.8199380822203</v>
+        <v>403.8813838827249</v>
       </c>
       <c r="T38" t="n">
         <v>569.2007777084634</v>
@@ -3599,7 +3599,7 @@
         <v>273.6720972219126</v>
       </c>
       <c r="F39" t="n">
-        <v>270.6362423378768</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G39" t="n">
         <v>254.6036490825745</v>
@@ -3650,7 +3650,7 @@
         <v>345.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>353.733995189991</v>
+        <v>353.7339951899914</v>
       </c>
       <c r="X39" t="n">
         <v>350.8627394453875</v>
@@ -3693,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>11.47913445688081</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>88.32595602663156</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>57.33474614110291</v>
+        <v>157.1398366246152</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
-        <v>410.2777099393364</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
         <v>404.3632896068686</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="S41" t="n">
-        <v>403.8813838827249</v>
+        <v>403.8199380822113</v>
       </c>
       <c r="T41" t="n">
         <v>569.2007777084634</v>
@@ -3836,13 +3836,13 @@
         <v>273.6720972219126</v>
       </c>
       <c r="F42" t="n">
-        <v>260.9970946180397</v>
+        <v>270.6362423378769</v>
       </c>
       <c r="G42" t="n">
         <v>254.6036490825745</v>
       </c>
       <c r="H42" t="n">
-        <v>242.5399173751004</v>
+        <v>242.5399173751003</v>
       </c>
       <c r="I42" t="n">
         <v>74.58817834417869</v>
@@ -3887,7 +3887,7 @@
         <v>345.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>363.3731429098285</v>
+        <v>353.7339951899914</v>
       </c>
       <c r="X42" t="n">
         <v>350.8627394453875</v>
@@ -3930,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>11.47913445688081</v>
+        <v>11.4791344568808</v>
       </c>
       <c r="L43" t="n">
-        <v>88.32595602663156</v>
+        <v>88.3259560266316</v>
       </c>
       <c r="M43" t="n">
-        <v>57.33474614110294</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>57.33474614110283</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>449.294478337805</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -3994,7 +3994,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8896287080119</v>
+        <v>404.7095288028211</v>
       </c>
       <c r="G44" t="n">
         <v>399.7654124880212</v>
@@ -4064,25 +4064,25 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C45" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>300.1425089727414</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>323.6036490825745</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>311.5399173751003</v>
       </c>
       <c r="I45" t="n">
-        <v>143.5881783441787</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>82.6602977430158</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>399.3913927661343</v>
@@ -4167,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>80.47913445688081</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>9.033802167734516</v>
+        <v>89.51293662461531</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2602.982645855861</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C2" t="n">
-        <v>2148.967920357887</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D2" t="n">
-        <v>1734.483924661069</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E2" t="n">
-        <v>1326.036157381404</v>
+        <v>1325.916304750417</v>
       </c>
       <c r="F2" t="n">
-        <v>917.0567344440182</v>
+        <v>916.9368818130309</v>
       </c>
       <c r="G2" t="n">
-        <v>513.3153539515858</v>
+        <v>513.1334348554337</v>
       </c>
       <c r="H2" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I2" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J2" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="K2" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="L2" t="n">
-        <v>686.6266407758674</v>
+        <v>686.6266407758765</v>
       </c>
       <c r="M2" t="n">
-        <v>1891.419148449526</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N2" t="n">
-        <v>3209.811881390118</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O2" t="n">
-        <v>4828.728738829161</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P2" t="n">
-        <v>6258.625023691042</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q2" t="n">
-        <v>7123.999999999991</v>
+        <v>7124</v>
       </c>
       <c r="R2" t="n">
-        <v>7124.000000000002</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S2" t="n">
-        <v>6716.039006179068</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T2" t="n">
-        <v>6141.088725665468</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U2" t="n">
-        <v>5485.632220852649</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V2" t="n">
-        <v>4849.419065128584</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W2" t="n">
-        <v>4204.597372218536</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X2" t="n">
-        <v>3606.332893975437</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y2" t="n">
-        <v>3089.850638740279</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="3">
@@ -4391,34 +4391,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1127.106069490456</v>
+        <v>1067.150036348514</v>
       </c>
       <c r="C3" t="n">
-        <v>1127.106069490456</v>
+        <v>702.4026500399086</v>
       </c>
       <c r="D3" t="n">
-        <v>1127.106069490456</v>
+        <v>702.4026500399086</v>
       </c>
       <c r="E3" t="n">
-        <v>1127.106069490456</v>
+        <v>702.4026500399086</v>
       </c>
       <c r="F3" t="n">
-        <v>784.0391580380552</v>
+        <v>702.4026500399086</v>
       </c>
       <c r="G3" t="n">
-        <v>457.1667852273739</v>
+        <v>602.205349211393</v>
       </c>
       <c r="H3" t="n">
-        <v>142.4799999999998</v>
+        <v>287.5185639840189</v>
       </c>
       <c r="I3" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J3" t="n">
-        <v>466.2130378168082</v>
+        <v>466.2130378168084</v>
       </c>
       <c r="K3" t="n">
-        <v>996.8557424960973</v>
+        <v>996.8557424960975</v>
       </c>
       <c r="L3" t="n">
         <v>1727.327716827147</v>
@@ -4451,16 +4451,16 @@
         <v>2734.51821711538</v>
       </c>
       <c r="V3" t="n">
-        <v>2315.820573487582</v>
+        <v>2719.860977527986</v>
       </c>
       <c r="W3" t="n">
-        <v>1954.635495966741</v>
+        <v>2283.12042913422</v>
       </c>
       <c r="X3" t="n">
-        <v>1530.531718749178</v>
+        <v>1859.016651916656</v>
       </c>
       <c r="Y3" t="n">
-        <v>1127.106069490456</v>
+        <v>1455.591002657935</v>
       </c>
     </row>
     <row r="4">
@@ -4470,76 +4470,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="C4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="D4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="F4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="G4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="H4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J4" t="n">
-        <v>232.8971077016315</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="K4" t="n">
-        <v>232.8971077016315</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="L4" t="n">
-        <v>367.5227375789945</v>
+        <v>367.5227375789947</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9839342576831</v>
+        <v>525.9839342576834</v>
       </c>
       <c r="N4" t="n">
-        <v>627.7896820337971</v>
+        <v>627.7896820337974</v>
       </c>
       <c r="O4" t="n">
-        <v>640.318612284097</v>
+        <v>640.3186122840972</v>
       </c>
       <c r="P4" t="n">
-        <v>568.7264656203292</v>
+        <v>568.7264656203295</v>
       </c>
       <c r="Q4" t="n">
-        <v>391.0534692308363</v>
+        <v>391.0534692308365</v>
       </c>
       <c r="R4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="S4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="T4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="U4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="V4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="W4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="X4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="5">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2603.044712321026</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C5" t="n">
-        <v>2149.029986823052</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D5" t="n">
         <v>1734.545991126234</v>
@@ -4564,61 +4564,61 @@
         <v>917.1188009091832</v>
       </c>
       <c r="G5" t="n">
-        <v>513.3153539515858</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H5" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I5" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J5" t="n">
-        <v>443.2118958274107</v>
+        <v>142.48</v>
       </c>
       <c r="K5" t="n">
-        <v>443.2118958274107</v>
+        <v>142.48</v>
       </c>
       <c r="L5" t="n">
-        <v>686.6266407758674</v>
+        <v>1673.171078589723</v>
       </c>
       <c r="M5" t="n">
-        <v>1891.419148449526</v>
+        <v>2877.963586263381</v>
       </c>
       <c r="N5" t="n">
-        <v>3209.811881390118</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O5" t="n">
-        <v>4828.728738829161</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P5" t="n">
-        <v>6258.625023691042</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q5" t="n">
-        <v>7123.999999999991</v>
+        <v>7124</v>
       </c>
       <c r="R5" t="n">
-        <v>7124.000000000002</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S5" t="n">
-        <v>6716.039006179068</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T5" t="n">
-        <v>6141.088725665468</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U5" t="n">
-        <v>5485.632220852649</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V5" t="n">
-        <v>4849.419065128584</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W5" t="n">
-        <v>4204.659438683701</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X5" t="n">
-        <v>3606.394960440603</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y5" t="n">
-        <v>3089.912705205445</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="6">
@@ -4628,34 +4628,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1471.190440388918</v>
+        <v>1455.591002657935</v>
       </c>
       <c r="C6" t="n">
-        <v>1106.443054080312</v>
+        <v>1090.84361634933</v>
       </c>
       <c r="D6" t="n">
-        <v>754.9908450927339</v>
+        <v>739.3914073617511</v>
       </c>
       <c r="E6" t="n">
-        <v>754.9908450927339</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="F6" t="n">
-        <v>754.9908450927339</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="G6" t="n">
-        <v>602.2053492113928</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="H6" t="n">
-        <v>287.5185639840187</v>
+        <v>142.48</v>
       </c>
       <c r="I6" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J6" t="n">
-        <v>466.2130378168082</v>
+        <v>466.2130378168084</v>
       </c>
       <c r="K6" t="n">
-        <v>996.8557424960973</v>
+        <v>996.8557424960975</v>
       </c>
       <c r="L6" t="n">
         <v>1727.327716827147</v>
@@ -4685,19 +4685,19 @@
         <v>3138.629167511604</v>
       </c>
       <c r="U6" t="n">
-        <v>3138.558621155784</v>
+        <v>2734.51821711538</v>
       </c>
       <c r="V6" t="n">
-        <v>3123.90138156839</v>
+        <v>2315.820573487582</v>
       </c>
       <c r="W6" t="n">
-        <v>2687.160833174623</v>
+        <v>2283.12042913422</v>
       </c>
       <c r="X6" t="n">
-        <v>2263.05705595706</v>
+        <v>1859.016651916656</v>
       </c>
       <c r="Y6" t="n">
-        <v>1859.631406698339</v>
+        <v>1455.591002657935</v>
       </c>
     </row>
     <row r="7">
@@ -4707,76 +4707,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="C7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="D7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="E7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="F7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="G7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="H7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J7" t="n">
-        <v>232.8971077016315</v>
+        <v>367.5227375789947</v>
       </c>
       <c r="K7" t="n">
-        <v>367.5227375789945</v>
+        <v>367.5227375789947</v>
       </c>
       <c r="L7" t="n">
-        <v>367.5227375789945</v>
+        <v>367.5227375789947</v>
       </c>
       <c r="M7" t="n">
-        <v>525.9839342576831</v>
+        <v>525.9839342576834</v>
       </c>
       <c r="N7" t="n">
-        <v>627.7896820337971</v>
+        <v>627.7896820337974</v>
       </c>
       <c r="O7" t="n">
-        <v>640.318612284097</v>
+        <v>640.3186122840972</v>
       </c>
       <c r="P7" t="n">
-        <v>568.7264656203292</v>
+        <v>568.7264656203295</v>
       </c>
       <c r="Q7" t="n">
-        <v>391.0534692308363</v>
+        <v>391.0534692308365</v>
       </c>
       <c r="R7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="S7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="T7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="U7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="V7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="W7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="X7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2603.044712321026</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C8" t="n">
-        <v>2149.029986823052</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D8" t="n">
-        <v>1734.545991126234</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E8" t="n">
-        <v>1326.098223846569</v>
+        <v>1325.916304750417</v>
       </c>
       <c r="F8" t="n">
-        <v>917.1188009091832</v>
+        <v>916.9368818130309</v>
       </c>
       <c r="G8" t="n">
-        <v>513.3153539515858</v>
+        <v>513.1334348554337</v>
       </c>
       <c r="H8" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I8" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J8" t="n">
-        <v>142.4799999999998</v>
+        <v>360.7280698598123</v>
       </c>
       <c r="K8" t="n">
-        <v>142.4799999999998</v>
+        <v>360.7280698598123</v>
       </c>
       <c r="L8" t="n">
-        <v>686.6266407758783</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="M8" t="n">
-        <v>1891.419148449537</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N8" t="n">
-        <v>3209.811881390129</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O8" t="n">
-        <v>4828.728738829172</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P8" t="n">
-        <v>6258.625023691053</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q8" t="n">
-        <v>7124.000000000002</v>
+        <v>7124</v>
       </c>
       <c r="R8" t="n">
-        <v>7124.000000000002</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S8" t="n">
-        <v>6716.039006179068</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T8" t="n">
-        <v>6141.088725665468</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U8" t="n">
-        <v>5485.632220852649</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V8" t="n">
-        <v>4849.419065128584</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W8" t="n">
-        <v>4204.597372218536</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X8" t="n">
-        <v>3606.394960440603</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y8" t="n">
-        <v>3089.912705205445</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="9">
@@ -4865,34 +4865,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2334.477660307944</v>
+        <v>1471.190440388918</v>
       </c>
       <c r="C9" t="n">
-        <v>1969.730273999339</v>
+        <v>1106.443054080312</v>
       </c>
       <c r="D9" t="n">
-        <v>1618.278065011761</v>
+        <v>754.9908450927339</v>
       </c>
       <c r="E9" t="n">
-        <v>1272.144633474475</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="F9" t="n">
-        <v>929.0777220220741</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="G9" t="n">
-        <v>602.2053492113928</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="H9" t="n">
-        <v>287.5185639840187</v>
+        <v>142.48</v>
       </c>
       <c r="I9" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J9" t="n">
-        <v>466.2130378168082</v>
+        <v>466.2130378168084</v>
       </c>
       <c r="K9" t="n">
-        <v>996.8557424960973</v>
+        <v>996.8557424960975</v>
       </c>
       <c r="L9" t="n">
         <v>1727.327716827147</v>
@@ -4919,22 +4919,22 @@
         <v>3539.385372133831</v>
       </c>
       <c r="T9" t="n">
-        <v>3539.385372133831</v>
+        <v>3138.629167511604</v>
       </c>
       <c r="U9" t="n">
-        <v>3539.31482577801</v>
+        <v>3138.558621155784</v>
       </c>
       <c r="V9" t="n">
-        <v>3524.657586190616</v>
+        <v>2719.860977527986</v>
       </c>
       <c r="W9" t="n">
-        <v>3087.91703779685</v>
+        <v>2283.120429134219</v>
       </c>
       <c r="X9" t="n">
-        <v>3067.853664619691</v>
+        <v>2263.05705595706</v>
       </c>
       <c r="Y9" t="n">
-        <v>2664.428015360969</v>
+        <v>1859.631406698339</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="C10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="D10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="E10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="F10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="G10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="H10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J10" t="n">
-        <v>232.8971077016315</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="K10" t="n">
-        <v>232.8971077016315</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="L10" t="n">
-        <v>367.5227375789945</v>
+        <v>367.5227375789947</v>
       </c>
       <c r="M10" t="n">
-        <v>525.9839342576831</v>
+        <v>525.9839342576834</v>
       </c>
       <c r="N10" t="n">
-        <v>627.7896820337971</v>
+        <v>627.7896820337974</v>
       </c>
       <c r="O10" t="n">
-        <v>640.318612284097</v>
+        <v>640.3186122840972</v>
       </c>
       <c r="P10" t="n">
-        <v>568.7264656203292</v>
+        <v>568.7264656203295</v>
       </c>
       <c r="Q10" t="n">
-        <v>391.0534692308363</v>
+        <v>391.0534692308365</v>
       </c>
       <c r="R10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="S10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="T10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="U10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="V10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="W10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="X10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2603.044712319262</v>
+        <v>2603.044712321026</v>
       </c>
       <c r="C11" t="n">
-        <v>2149.029986821641</v>
+        <v>2149.029986823052</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.545991124823</v>
+        <v>1734.545991126234</v>
       </c>
       <c r="E11" t="n">
-        <v>1326.098223845511</v>
+        <v>1326.098223846569</v>
       </c>
       <c r="F11" t="n">
-        <v>917.1188009084776</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G11" t="n">
-        <v>513.3153539512331</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H11" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I11" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J11" t="n">
-        <v>142.4799999999998</v>
+        <v>443.2118958274108</v>
       </c>
       <c r="K11" t="n">
-        <v>142.4799999999998</v>
+        <v>443.2118958274108</v>
       </c>
       <c r="L11" t="n">
-        <v>1380.570319720591</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="M11" t="n">
-        <v>1891.419148449526</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N11" t="n">
-        <v>3209.811881390118</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O11" t="n">
-        <v>4828.728738829161</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P11" t="n">
-        <v>6258.625023691042</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q11" t="n">
-        <v>7123.999999999991</v>
+        <v>7124</v>
       </c>
       <c r="R11" t="n">
-        <v>7123.880147369357</v>
+        <v>7124.000000000005</v>
       </c>
       <c r="S11" t="n">
-        <v>6715.919153548776</v>
+        <v>6716.101072644233</v>
       </c>
       <c r="T11" t="n">
-        <v>6140.968873035529</v>
+        <v>6141.150792130633</v>
       </c>
       <c r="U11" t="n">
-        <v>5485.512368223062</v>
+        <v>5485.694287317814</v>
       </c>
       <c r="V11" t="n">
-        <v>4849.299212499351</v>
+        <v>4849.48113159375</v>
       </c>
       <c r="W11" t="n">
-        <v>4204.477519589655</v>
+        <v>4204.659438683701</v>
       </c>
       <c r="X11" t="n">
-        <v>3606.394960438133</v>
+        <v>3606.394960440603</v>
       </c>
       <c r="Y11" t="n">
-        <v>3089.912705203328</v>
+        <v>3089.912705205445</v>
       </c>
     </row>
     <row r="12">
@@ -5102,34 +5102,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>929.0777220220741</v>
+        <v>1066.535281566832</v>
       </c>
       <c r="C12" t="n">
-        <v>929.0777220220741</v>
+        <v>1066.535281566832</v>
       </c>
       <c r="D12" t="n">
-        <v>929.0777220220741</v>
+        <v>1066.535281566832</v>
       </c>
       <c r="E12" t="n">
-        <v>929.0777220220741</v>
+        <v>1066.535281566832</v>
       </c>
       <c r="F12" t="n">
-        <v>929.0777220220741</v>
+        <v>929.0777220220743</v>
       </c>
       <c r="G12" t="n">
-        <v>602.2053492113928</v>
+        <v>602.205349211393</v>
       </c>
       <c r="H12" t="n">
-        <v>287.5185639840187</v>
+        <v>287.5185639840189</v>
       </c>
       <c r="I12" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J12" t="n">
-        <v>466.2130378168082</v>
+        <v>466.2130378168084</v>
       </c>
       <c r="K12" t="n">
-        <v>996.8557424960973</v>
+        <v>996.8557424960975</v>
       </c>
       <c r="L12" t="n">
         <v>1727.327716827147</v>
@@ -5165,13 +5165,13 @@
         <v>2315.820573487582</v>
       </c>
       <c r="W12" t="n">
-        <v>2145.04811480778</v>
+        <v>1879.080025093816</v>
       </c>
       <c r="X12" t="n">
-        <v>1720.944337590216</v>
+        <v>1454.976247876253</v>
       </c>
       <c r="Y12" t="n">
-        <v>1317.518688331495</v>
+        <v>1454.976247876253</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="C13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="D13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="G13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J13" t="n">
-        <v>232.8971077016315</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="K13" t="n">
-        <v>232.8971077016315</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="L13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="M13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="N13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="O13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="P13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="R13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="S13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="T13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="U13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="V13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="W13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="X13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2603.044712321026</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C14" t="n">
         <v>2149.029986823052</v>
@@ -5275,61 +5275,61 @@
         <v>917.1188009091832</v>
       </c>
       <c r="G14" t="n">
-        <v>513.3153539515858</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H14" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I14" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J14" t="n">
-        <v>443.2118958274107</v>
+        <v>142.48</v>
       </c>
       <c r="K14" t="n">
-        <v>443.2118958274107</v>
+        <v>142.48</v>
       </c>
       <c r="L14" t="n">
-        <v>1380.570319720602</v>
+        <v>686.6266407758765</v>
       </c>
       <c r="M14" t="n">
-        <v>1891.419148449537</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N14" t="n">
-        <v>3209.811881390129</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O14" t="n">
-        <v>4828.728738829172</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P14" t="n">
-        <v>6258.625023691053</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q14" t="n">
-        <v>7124.000000000002</v>
+        <v>7124</v>
       </c>
       <c r="R14" t="n">
-        <v>7124.000000000002</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S14" t="n">
-        <v>6716.101072644233</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T14" t="n">
-        <v>6141.150792130633</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U14" t="n">
-        <v>5485.694287317814</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V14" t="n">
-        <v>4849.48113159375</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W14" t="n">
-        <v>4204.659438683701</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X14" t="n">
-        <v>3606.394960440603</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y14" t="n">
-        <v>3089.912705205445</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1846.598872426687</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C15" t="n">
-        <v>1551.548455815404</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D15" t="n">
-        <v>1269.793216525148</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E15" t="n">
-        <v>993.356754685185</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F15" t="n">
-        <v>719.9868129301067</v>
+        <v>719.9868129311652</v>
       </c>
       <c r="G15" t="n">
-        <v>462.8114098167479</v>
+        <v>462.8114098174536</v>
       </c>
       <c r="H15" t="n">
-        <v>217.8215942866962</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I15" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J15" t="n">
-        <v>534.523037817154</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.475742496789</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L15" t="n">
-        <v>1932.257716828184</v>
+        <v>1932.257716827147</v>
       </c>
       <c r="M15" t="n">
-        <v>2622.421408571388</v>
+        <v>2622.421408570006</v>
       </c>
       <c r="N15" t="n">
-        <v>3373.965164217038</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O15" t="n">
-        <v>4184.417599769027</v>
+        <v>4184.417599766954</v>
       </c>
       <c r="P15" t="n">
-        <v>4769.039035370955</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q15" t="n">
-        <v>4935.918197648708</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R15" t="n">
-        <v>4586.765210103871</v>
+        <v>4586.765210100752</v>
       </c>
       <c r="S15" t="n">
-        <v>4225.259311531241</v>
+        <v>4225.25931152777</v>
       </c>
       <c r="T15" t="n">
-        <v>3894.200076606337</v>
+        <v>3894.200076602513</v>
       </c>
       <c r="U15" t="n">
-        <v>3559.786095907435</v>
+        <v>3559.786095903258</v>
       </c>
       <c r="V15" t="n">
-        <v>3220.521934816869</v>
+        <v>3210.78542197243</v>
       </c>
       <c r="W15" t="n">
-        <v>2853.478356120425</v>
+        <v>2843.741843275633</v>
       </c>
       <c r="X15" t="n">
-        <v>2499.071548600185</v>
+        <v>2489.335035755039</v>
       </c>
       <c r="Y15" t="n">
-        <v>2165.342869038785</v>
+        <v>2155.606356193287</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="C16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="D16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="G16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="H16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="I16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="J16" t="n">
-        <v>301.2071077019772</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K16" t="n">
-        <v>301.2071077019772</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L16" t="n">
-        <v>301.2071077019772</v>
+        <v>200.393884991013</v>
       </c>
       <c r="M16" t="n">
-        <v>301.2071077019772</v>
+        <v>142.48</v>
       </c>
       <c r="N16" t="n">
-        <v>301.2071077019772</v>
+        <v>142.48</v>
       </c>
       <c r="O16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="P16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="R16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="S16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="T16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="U16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="V16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="W16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="X16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.4799999999998</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2602.982645855861</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C17" t="n">
-        <v>2148.967920357887</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.483924661069</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E17" t="n">
-        <v>1326.036157381404</v>
+        <v>1326.098223846569</v>
       </c>
       <c r="F17" t="n">
-        <v>917.1188009091834</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G17" t="n">
-        <v>513.3153539515861</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H17" t="n">
         <v>142.48</v>
@@ -5530,43 +5530,43 @@
         <v>2885.591778656184</v>
       </c>
       <c r="M17" t="n">
-        <v>4090.384286329843</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="N17" t="n">
-        <v>5408.777019270436</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O17" t="n">
-        <v>5408.777019270436</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P17" t="n">
-        <v>6838.673304132317</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q17" t="n">
-        <v>7124.000000000002</v>
+        <v>7124</v>
       </c>
       <c r="R17" t="n">
-        <v>7124.000000000002</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S17" t="n">
-        <v>6716.039006179068</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T17" t="n">
-        <v>6141.088725665468</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U17" t="n">
-        <v>5485.632220852649</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V17" t="n">
-        <v>4849.419065128584</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W17" t="n">
-        <v>4204.597372218536</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X17" t="n">
-        <v>3606.332893975437</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y17" t="n">
-        <v>3089.850638740279</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1836.862359586779</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C18" t="n">
-        <v>1541.811942975497</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D18" t="n">
-        <v>1260.056703685241</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E18" t="n">
-        <v>993.3567546851853</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F18" t="n">
-        <v>719.9868129301069</v>
+        <v>719.9868129311652</v>
       </c>
       <c r="G18" t="n">
-        <v>462.8114098167481</v>
+        <v>462.8114098174536</v>
       </c>
       <c r="H18" t="n">
-        <v>217.8215942866964</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I18" t="n">
         <v>142.48</v>
       </c>
       <c r="J18" t="n">
-        <v>534.5230378171542</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.475742496789</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L18" t="n">
-        <v>1932.257716828184</v>
+        <v>1932.257716827147</v>
       </c>
       <c r="M18" t="n">
-        <v>2622.421408571389</v>
+        <v>2622.421408570006</v>
       </c>
       <c r="N18" t="n">
-        <v>3373.965164217039</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O18" t="n">
-        <v>4184.417599769029</v>
+        <v>4184.417599766954</v>
       </c>
       <c r="P18" t="n">
-        <v>4769.039035370957</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q18" t="n">
-        <v>4935.91819764871</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R18" t="n">
-        <v>4586.765210103873</v>
+        <v>4596.501722949073</v>
       </c>
       <c r="S18" t="n">
-        <v>4225.259311531243</v>
+        <v>4234.99582437609</v>
       </c>
       <c r="T18" t="n">
-        <v>3894.200076606339</v>
+        <v>3903.936589450833</v>
       </c>
       <c r="U18" t="n">
-        <v>3559.786095907437</v>
+        <v>3569.522608751578</v>
       </c>
       <c r="V18" t="n">
-        <v>3210.785421976961</v>
+        <v>3220.52193482075</v>
       </c>
       <c r="W18" t="n">
-        <v>2843.741843280518</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X18" t="n">
-        <v>2489.335035760277</v>
+        <v>2499.07154860336</v>
       </c>
       <c r="Y18" t="n">
-        <v>2155.606356198878</v>
+        <v>2165.342869041608</v>
       </c>
     </row>
     <row r="19">
@@ -5679,13 +5679,13 @@
         <v>142.48</v>
       </c>
       <c r="J19" t="n">
-        <v>301.2071077019774</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K19" t="n">
-        <v>289.6120223923496</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L19" t="n">
-        <v>200.3938849920643</v>
+        <v>200.393884991013</v>
       </c>
       <c r="M19" t="n">
         <v>142.48</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2602.982645855861</v>
+        <v>2603.044712321026</v>
       </c>
       <c r="C20" t="n">
-        <v>2148.967920357887</v>
+        <v>2149.029986823052</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.483924661069</v>
+        <v>1734.545991126234</v>
       </c>
       <c r="E20" t="n">
-        <v>1326.036157381404</v>
+        <v>1326.098223846569</v>
       </c>
       <c r="F20" t="n">
-        <v>917.0567344440182</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G20" t="n">
-        <v>513.253287486421</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H20" t="n">
         <v>142.48</v>
@@ -5758,52 +5758,52 @@
         <v>142.48</v>
       </c>
       <c r="J20" t="n">
-        <v>443.2118958274109</v>
+        <v>443.2118958274108</v>
       </c>
       <c r="K20" t="n">
-        <v>443.2118958274109</v>
+        <v>443.2118958274108</v>
       </c>
       <c r="L20" t="n">
-        <v>686.6266407758783</v>
+        <v>686.6266407758819</v>
       </c>
       <c r="M20" t="n">
-        <v>1891.419148449537</v>
+        <v>1891.41914844954</v>
       </c>
       <c r="N20" t="n">
-        <v>3209.811881390129</v>
+        <v>3209.811881390133</v>
       </c>
       <c r="O20" t="n">
-        <v>4828.728738829172</v>
+        <v>4828.728738829175</v>
       </c>
       <c r="P20" t="n">
-        <v>6258.625023691053</v>
+        <v>6258.625023691056</v>
       </c>
       <c r="Q20" t="n">
-        <v>7124.000000000002</v>
+        <v>7124.000000000005</v>
       </c>
       <c r="R20" t="n">
-        <v>7124.000000000002</v>
+        <v>7124.000000000005</v>
       </c>
       <c r="S20" t="n">
-        <v>6716.039006179068</v>
+        <v>6716.101072644233</v>
       </c>
       <c r="T20" t="n">
-        <v>6141.088725665468</v>
+        <v>6141.150792130633</v>
       </c>
       <c r="U20" t="n">
-        <v>5485.632220852649</v>
+        <v>5485.694287317814</v>
       </c>
       <c r="V20" t="n">
-        <v>4849.419065128584</v>
+        <v>4849.48113159375</v>
       </c>
       <c r="W20" t="n">
-        <v>4204.597372218536</v>
+        <v>4204.659438683701</v>
       </c>
       <c r="X20" t="n">
-        <v>3606.332893975437</v>
+        <v>3606.394960440603</v>
       </c>
       <c r="Y20" t="n">
-        <v>3089.850638740279</v>
+        <v>3089.912705205445</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1846.598872426687</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C21" t="n">
-        <v>1551.548455815404</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D21" t="n">
-        <v>1269.793216525148</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E21" t="n">
-        <v>993.3567546851853</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F21" t="n">
-        <v>719.9868129301069</v>
+        <v>719.9868129311652</v>
       </c>
       <c r="G21" t="n">
-        <v>462.8114098167481</v>
+        <v>462.8114098174536</v>
       </c>
       <c r="H21" t="n">
-        <v>217.8215942866964</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I21" t="n">
         <v>142.48</v>
       </c>
       <c r="J21" t="n">
-        <v>534.5230378171542</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.475742496789</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L21" t="n">
-        <v>1932.257716828184</v>
+        <v>1932.257716827147</v>
       </c>
       <c r="M21" t="n">
-        <v>2622.421408571504</v>
+        <v>2622.421408570006</v>
       </c>
       <c r="N21" t="n">
-        <v>3373.965164217154</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O21" t="n">
-        <v>4184.417599769144</v>
+        <v>4184.417599766954</v>
       </c>
       <c r="P21" t="n">
-        <v>4769.039035371072</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q21" t="n">
-        <v>4935.918197648824</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R21" t="n">
-        <v>4586.765210103988</v>
+        <v>4596.501722949073</v>
       </c>
       <c r="S21" t="n">
-        <v>4225.259311531358</v>
+        <v>4234.99582437609</v>
       </c>
       <c r="T21" t="n">
-        <v>3894.200076606453</v>
+        <v>3903.936589450833</v>
       </c>
       <c r="U21" t="n">
-        <v>3559.786095907551</v>
+        <v>3569.522608751578</v>
       </c>
       <c r="V21" t="n">
-        <v>3210.785421977076</v>
+        <v>3220.52193482075</v>
       </c>
       <c r="W21" t="n">
-        <v>2853.478356120425</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X21" t="n">
-        <v>2499.071548600185</v>
+        <v>2499.07154860336</v>
       </c>
       <c r="Y21" t="n">
-        <v>2165.342869038785</v>
+        <v>2165.342869041608</v>
       </c>
     </row>
     <row r="22">
@@ -5916,16 +5916,16 @@
         <v>142.48</v>
       </c>
       <c r="J22" t="n">
-        <v>301.2071077019774</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K22" t="n">
-        <v>289.6120223923496</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L22" t="n">
-        <v>200.3938849920643</v>
+        <v>289.612022391651</v>
       </c>
       <c r="M22" t="n">
-        <v>200.3938849920643</v>
+        <v>142.48</v>
       </c>
       <c r="N22" t="n">
         <v>142.48</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2603.044712321026</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C23" t="n">
-        <v>2149.029986823052</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.545991126234</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E23" t="n">
-        <v>1326.098223846569</v>
+        <v>1325.916304750417</v>
       </c>
       <c r="F23" t="n">
-        <v>917.1188009091834</v>
+        <v>916.9368818130309</v>
       </c>
       <c r="G23" t="n">
-        <v>513.3153539515861</v>
+        <v>513.1334348554337</v>
       </c>
       <c r="H23" t="n">
         <v>142.48</v>
@@ -5995,52 +5995,52 @@
         <v>142.48</v>
       </c>
       <c r="J23" t="n">
-        <v>869.213585047706</v>
+        <v>142.48</v>
       </c>
       <c r="K23" t="n">
-        <v>2081.634285114168</v>
+        <v>1065.900483025642</v>
       </c>
       <c r="L23" t="n">
-        <v>2596.591561615366</v>
+        <v>2596.591561615364</v>
       </c>
       <c r="M23" t="n">
-        <v>2596.591561615366</v>
+        <v>2596.591561615364</v>
       </c>
       <c r="N23" t="n">
-        <v>3209.811881390129</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O23" t="n">
-        <v>4828.728738829172</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P23" t="n">
-        <v>6258.625023691053</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q23" t="n">
-        <v>7124.000000000002</v>
+        <v>7124</v>
       </c>
       <c r="R23" t="n">
-        <v>7124.000000000002</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S23" t="n">
-        <v>6716.101072644233</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T23" t="n">
-        <v>6141.150792130633</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U23" t="n">
-        <v>5485.694287317814</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V23" t="n">
-        <v>4849.48113159375</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W23" t="n">
-        <v>4204.659438683701</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X23" t="n">
-        <v>3606.394960440603</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y23" t="n">
-        <v>3089.912705205445</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1846.598872426687</v>
+        <v>1836.862359580836</v>
       </c>
       <c r="C24" t="n">
-        <v>1551.548455815404</v>
+        <v>1541.811942969201</v>
       </c>
       <c r="D24" t="n">
-        <v>1269.793216525148</v>
+        <v>1260.056703678592</v>
       </c>
       <c r="E24" t="n">
-        <v>993.3567546851853</v>
+        <v>983.6202418382761</v>
       </c>
       <c r="F24" t="n">
-        <v>719.9868129301069</v>
+        <v>719.9868129311651</v>
       </c>
       <c r="G24" t="n">
-        <v>462.8114098167481</v>
+        <v>462.8114098174535</v>
       </c>
       <c r="H24" t="n">
-        <v>217.8215942866964</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I24" t="n">
         <v>142.48</v>
       </c>
       <c r="J24" t="n">
-        <v>534.5230378171542</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.475742496789</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L24" t="n">
-        <v>1932.257716828184</v>
+        <v>1932.257716827147</v>
       </c>
       <c r="M24" t="n">
-        <v>2622.421408571389</v>
+        <v>2622.421408570006</v>
       </c>
       <c r="N24" t="n">
-        <v>3373.965164217039</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O24" t="n">
-        <v>4184.417599769029</v>
+        <v>4184.417599766954</v>
       </c>
       <c r="P24" t="n">
-        <v>4769.039035370957</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q24" t="n">
-        <v>4935.91819764871</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R24" t="n">
-        <v>4586.765210103873</v>
+        <v>4586.765210100752</v>
       </c>
       <c r="S24" t="n">
-        <v>4234.995824371151</v>
+        <v>4225.25931152777</v>
       </c>
       <c r="T24" t="n">
-        <v>3903.936589446247</v>
+        <v>3894.200076602513</v>
       </c>
       <c r="U24" t="n">
-        <v>3569.522608747345</v>
+        <v>3559.786095903258</v>
       </c>
       <c r="V24" t="n">
-        <v>3220.521934816869</v>
+        <v>3210.78542197243</v>
       </c>
       <c r="W24" t="n">
-        <v>2853.478356120425</v>
+        <v>2843.741843275633</v>
       </c>
       <c r="X24" t="n">
-        <v>2499.071548600185</v>
+        <v>2489.335035755039</v>
       </c>
       <c r="Y24" t="n">
-        <v>2165.342869038785</v>
+        <v>2155.606356193287</v>
       </c>
     </row>
     <row r="25">
@@ -6153,13 +6153,13 @@
         <v>142.48</v>
       </c>
       <c r="J25" t="n">
-        <v>301.2071077019774</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K25" t="n">
-        <v>289.6120223923496</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L25" t="n">
-        <v>200.3938849920644</v>
+        <v>289.612022391651</v>
       </c>
       <c r="M25" t="n">
         <v>142.48</v>
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2602.862793224897</v>
+        <v>2603.044712321026</v>
       </c>
       <c r="C26" t="n">
-        <v>2148.848067726924</v>
+        <v>2149.029986823052</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.364072030105</v>
+        <v>1734.545991126234</v>
       </c>
       <c r="E26" t="n">
-        <v>1325.91630475044</v>
+        <v>1326.098223846569</v>
       </c>
       <c r="F26" t="n">
-        <v>917.1188009091838</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G26" t="n">
-        <v>513.3153539515865</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H26" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="I26" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J26" t="n">
-        <v>869.2135850477065</v>
+        <v>142.48</v>
       </c>
       <c r="K26" t="n">
-        <v>935.5760293948009</v>
+        <v>142.48</v>
       </c>
       <c r="L26" t="n">
-        <v>2466.267107984524</v>
+        <v>686.6266407758765</v>
       </c>
       <c r="M26" t="n">
-        <v>2977.115936713459</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N26" t="n">
-        <v>3209.811881390151</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O26" t="n">
-        <v>4828.728738829193</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P26" t="n">
-        <v>6258.625023691075</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q26" t="n">
-        <v>7124.000000000024</v>
+        <v>7124</v>
       </c>
       <c r="R26" t="n">
-        <v>7123.880147369037</v>
+        <v>7124.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6715.919153548103</v>
+        <v>6716.101072644233</v>
       </c>
       <c r="T26" t="n">
-        <v>6140.968873034504</v>
+        <v>6141.150792130633</v>
       </c>
       <c r="U26" t="n">
-        <v>5485.512368221685</v>
+        <v>5485.694287317814</v>
       </c>
       <c r="V26" t="n">
-        <v>4849.299212497621</v>
+        <v>4849.48113159375</v>
       </c>
       <c r="W26" t="n">
-        <v>4204.477519587573</v>
+        <v>4204.659438683701</v>
       </c>
       <c r="X26" t="n">
-        <v>3606.213041344474</v>
+        <v>3606.394960440603</v>
       </c>
       <c r="Y26" t="n">
-        <v>3089.730786109316</v>
+        <v>3089.912705205445</v>
       </c>
     </row>
     <row r="27">
@@ -6287,34 +6287,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1836.862359580837</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C27" t="n">
-        <v>1541.811942969201</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D27" t="n">
-        <v>1260.056703678593</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E27" t="n">
-        <v>983.620241838277</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F27" t="n">
-        <v>719.9868129311658</v>
+        <v>719.9868129311652</v>
       </c>
       <c r="G27" t="n">
-        <v>462.8114098174541</v>
+        <v>462.8114098174536</v>
       </c>
       <c r="H27" t="n">
-        <v>217.8215942870497</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I27" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J27" t="n">
-        <v>534.5230378168089</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.475742496098</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L27" t="n">
         <v>1932.257716827147</v>
@@ -6323,40 +6323,40 @@
         <v>2622.421408570006</v>
       </c>
       <c r="N27" t="n">
-        <v>3373.965164215311</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O27" t="n">
         <v>4184.417599766954</v>
       </c>
       <c r="P27" t="n">
-        <v>4769.039035368537</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q27" t="n">
-        <v>4935.918197645943</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R27" t="n">
-        <v>4586.765210100753</v>
+        <v>4596.501722949073</v>
       </c>
       <c r="S27" t="n">
-        <v>4225.25931152777</v>
+        <v>4234.99582437609</v>
       </c>
       <c r="T27" t="n">
-        <v>3894.200076602513</v>
+        <v>3903.936589450833</v>
       </c>
       <c r="U27" t="n">
-        <v>3559.786095903259</v>
+        <v>3569.522608751578</v>
       </c>
       <c r="V27" t="n">
-        <v>3210.78542197243</v>
+        <v>3220.52193482075</v>
       </c>
       <c r="W27" t="n">
-        <v>2843.741843275634</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X27" t="n">
-        <v>2489.33503575504</v>
+        <v>2499.07154860336</v>
       </c>
       <c r="Y27" t="n">
-        <v>2155.606356193288</v>
+        <v>2165.342869041608</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="C28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="D28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="E28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="F28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="H28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="I28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J28" t="n">
-        <v>301.2071077016321</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K28" t="n">
-        <v>289.6120223916515</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L28" t="n">
-        <v>200.3938849910135</v>
+        <v>200.393884991013</v>
       </c>
       <c r="M28" t="n">
-        <v>200.3938849910135</v>
+        <v>142.48</v>
       </c>
       <c r="N28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="O28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="P28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="R28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="T28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="U28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="V28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="W28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="X28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2602.982645855883</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C29" t="n">
-        <v>2148.967920357909</v>
+        <v>2149.029986823052</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.483924661091</v>
+        <v>1734.545991126234</v>
       </c>
       <c r="E29" t="n">
-        <v>1326.036157381426</v>
+        <v>1326.098223846569</v>
       </c>
       <c r="F29" t="n">
-        <v>917.05673444404</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G29" t="n">
-        <v>513.2532874864428</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H29" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="I29" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J29" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="K29" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="L29" t="n">
-        <v>766.1415840201009</v>
+        <v>686.6266407758765</v>
       </c>
       <c r="M29" t="n">
-        <v>1891.419148449559</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N29" t="n">
-        <v>3209.811881390151</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O29" t="n">
-        <v>4828.728738829193</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P29" t="n">
-        <v>6258.625023691075</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q29" t="n">
-        <v>7124.000000000024</v>
+        <v>7124</v>
       </c>
       <c r="R29" t="n">
-        <v>7124.000000000024</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S29" t="n">
-        <v>6716.039006179089</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T29" t="n">
-        <v>6141.08872566549</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U29" t="n">
-        <v>5485.632220852671</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V29" t="n">
-        <v>4849.419065128606</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W29" t="n">
-        <v>4204.597372218558</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X29" t="n">
-        <v>3606.332893975459</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y29" t="n">
-        <v>3089.850638740301</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1846.598872429054</v>
+        <v>1846.598872429113</v>
       </c>
       <c r="C30" t="n">
-        <v>1551.548455817433</v>
+        <v>1551.548455817492</v>
       </c>
       <c r="D30" t="n">
-        <v>1269.793216526839</v>
+        <v>1269.793216526883</v>
       </c>
       <c r="E30" t="n">
-        <v>993.3567546865381</v>
+        <v>993.356754686567</v>
       </c>
       <c r="F30" t="n">
-        <v>719.9868129311217</v>
+        <v>719.9868129311358</v>
       </c>
       <c r="G30" t="n">
-        <v>462.8114098174246</v>
+        <v>462.8114098174242</v>
       </c>
       <c r="H30" t="n">
-        <v>217.8215942870349</v>
+        <v>217.8215942870345</v>
       </c>
       <c r="I30" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J30" t="n">
-        <v>534.523037816845</v>
+        <v>534.5230378168229</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.475742496149</v>
+        <v>1133.475742496126</v>
       </c>
       <c r="L30" t="n">
-        <v>1932.257716827212</v>
+        <v>1932.25771682719</v>
       </c>
       <c r="M30" t="n">
-        <v>2622.421408570086</v>
+        <v>2622.421408570049</v>
       </c>
       <c r="N30" t="n">
-        <v>3373.965164215404</v>
+        <v>3373.965164215368</v>
       </c>
       <c r="O30" t="n">
-        <v>4184.417599767063</v>
+        <v>4184.417599767025</v>
       </c>
       <c r="P30" t="n">
-        <v>4769.039035368659</v>
+        <v>4769.039035368622</v>
       </c>
       <c r="Q30" t="n">
-        <v>4935.91819764608</v>
+        <v>4935.918197646028</v>
       </c>
       <c r="R30" t="n">
-        <v>4586.765210100904</v>
+        <v>4596.50172294894</v>
       </c>
       <c r="S30" t="n">
-        <v>4225.259311527936</v>
+        <v>4234.995824375972</v>
       </c>
       <c r="T30" t="n">
-        <v>3894.200076602694</v>
+        <v>3903.93658945073</v>
       </c>
       <c r="U30" t="n">
-        <v>3559.786095903453</v>
+        <v>3569.522608751475</v>
       </c>
       <c r="V30" t="n">
-        <v>3210.78542197264</v>
+        <v>3220.521934820646</v>
       </c>
       <c r="W30" t="n">
-        <v>2853.478356123806</v>
+        <v>2853.478356123865</v>
       </c>
       <c r="X30" t="n">
-        <v>2499.071548603228</v>
+        <v>2499.071548603286</v>
       </c>
       <c r="Y30" t="n">
-        <v>2165.342869041491</v>
+        <v>2165.342869041549</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="C31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="D31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="F31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="G31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="H31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="I31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J31" t="n">
-        <v>301.2071077016465</v>
+        <v>301.2071077016461</v>
       </c>
       <c r="K31" t="n">
-        <v>289.6120223916806</v>
+        <v>289.6120223916802</v>
       </c>
       <c r="L31" t="n">
-        <v>200.3938849910573</v>
+        <v>289.6120223916802</v>
       </c>
       <c r="M31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="N31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="O31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="P31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="R31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="T31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="U31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="V31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="W31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="X31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2602.862793224897</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C32" t="n">
-        <v>2148.848067726924</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.364072030105</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E32" t="n">
-        <v>1325.91630475044</v>
+        <v>1325.916304750417</v>
       </c>
       <c r="F32" t="n">
-        <v>917.1188009091838</v>
+        <v>916.9368818130309</v>
       </c>
       <c r="G32" t="n">
-        <v>513.3153539515865</v>
+        <v>513.1334348554337</v>
       </c>
       <c r="H32" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="I32" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J32" t="n">
-        <v>533.7891130376562</v>
+        <v>142.48</v>
       </c>
       <c r="K32" t="n">
-        <v>533.7891130376562</v>
+        <v>142.48</v>
       </c>
       <c r="L32" t="n">
-        <v>686.6266407759001</v>
+        <v>686.6266407758765</v>
       </c>
       <c r="M32" t="n">
-        <v>1891.419148449559</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N32" t="n">
-        <v>3209.811881390151</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O32" t="n">
-        <v>4828.728738829193</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P32" t="n">
-        <v>6258.625023691075</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q32" t="n">
-        <v>7124.000000000024</v>
+        <v>7124</v>
       </c>
       <c r="R32" t="n">
-        <v>7123.880147369037</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S32" t="n">
-        <v>6715.919153548103</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T32" t="n">
-        <v>6140.968873034504</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U32" t="n">
-        <v>5485.512368221685</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V32" t="n">
-        <v>4849.299212497621</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W32" t="n">
-        <v>4204.477519587573</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X32" t="n">
-        <v>3606.213041344474</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y32" t="n">
-        <v>3089.730786109316</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1846.598872429054</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C33" t="n">
-        <v>1551.548455817433</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D33" t="n">
-        <v>1269.793216526839</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E33" t="n">
-        <v>993.3567546865381</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F33" t="n">
-        <v>719.9868129311217</v>
+        <v>719.9868129311651</v>
       </c>
       <c r="G33" t="n">
-        <v>462.8114098174246</v>
+        <v>462.8114098174535</v>
       </c>
       <c r="H33" t="n">
-        <v>217.8215942870349</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I33" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J33" t="n">
-        <v>534.5230378168377</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.475742496141</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L33" t="n">
-        <v>1932.257716827205</v>
+        <v>1932.257716827147</v>
       </c>
       <c r="M33" t="n">
-        <v>2622.421408570079</v>
+        <v>2622.421408570006</v>
       </c>
       <c r="N33" t="n">
-        <v>3373.965164215397</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O33" t="n">
-        <v>4184.417599767055</v>
+        <v>4184.417599766954</v>
       </c>
       <c r="P33" t="n">
-        <v>4769.039035368652</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q33" t="n">
-        <v>4935.918197646072</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R33" t="n">
-        <v>4586.765210100897</v>
+        <v>4596.501722949073</v>
       </c>
       <c r="S33" t="n">
-        <v>4225.259311527929</v>
+        <v>4234.99582437609</v>
       </c>
       <c r="T33" t="n">
-        <v>3894.200076602686</v>
+        <v>3903.936589450833</v>
       </c>
       <c r="U33" t="n">
-        <v>3559.786095903446</v>
+        <v>3569.522608751578</v>
       </c>
       <c r="V33" t="n">
-        <v>3210.785421972632</v>
+        <v>3220.52193482075</v>
       </c>
       <c r="W33" t="n">
-        <v>2853.478356123806</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X33" t="n">
-        <v>2499.071548603228</v>
+        <v>2499.07154860336</v>
       </c>
       <c r="Y33" t="n">
-        <v>2165.342869041491</v>
+        <v>2165.342869041608</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="C34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="D34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="F34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="G34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="H34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="I34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="J34" t="n">
-        <v>301.2071077016465</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K34" t="n">
-        <v>289.6120223916806</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L34" t="n">
-        <v>200.3938849910573</v>
+        <v>200.393884991013</v>
       </c>
       <c r="M34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="N34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="O34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="P34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="R34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="T34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="U34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="V34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="W34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="X34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.4800000000005</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2602.982645855872</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C35" t="n">
-        <v>2148.967920357898</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.48392466108</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E35" t="n">
-        <v>1326.036157381415</v>
+        <v>1325.916304750417</v>
       </c>
       <c r="F35" t="n">
-        <v>917.0567344440291</v>
+        <v>916.9368818130309</v>
       </c>
       <c r="G35" t="n">
-        <v>513.3153539515863</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H35" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="I35" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="J35" t="n">
-        <v>686.6266407758892</v>
+        <v>142.48</v>
       </c>
       <c r="K35" t="n">
-        <v>686.6266407758892</v>
+        <v>142.48</v>
       </c>
       <c r="L35" t="n">
-        <v>686.6266407758892</v>
+        <v>686.6266407758765</v>
       </c>
       <c r="M35" t="n">
-        <v>1891.419148449548</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N35" t="n">
-        <v>3209.81188139014</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O35" t="n">
-        <v>4828.728738829182</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P35" t="n">
-        <v>6258.625023691064</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q35" t="n">
-        <v>7124.000000000013</v>
+        <v>7124</v>
       </c>
       <c r="R35" t="n">
-        <v>7124.000000000013</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S35" t="n">
-        <v>6716.039006179079</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T35" t="n">
-        <v>6141.088725665479</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U35" t="n">
-        <v>5485.63222085266</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V35" t="n">
-        <v>4849.419065128595</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W35" t="n">
-        <v>4204.597372218547</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X35" t="n">
-        <v>3606.332893975448</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y35" t="n">
-        <v>3089.85063874029</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1846.598872429054</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C36" t="n">
-        <v>1551.548455817433</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D36" t="n">
-        <v>1269.793216526839</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E36" t="n">
-        <v>993.3567546865379</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F36" t="n">
-        <v>719.9868129311214</v>
+        <v>719.9868129311651</v>
       </c>
       <c r="G36" t="n">
-        <v>462.8114098174244</v>
+        <v>462.8114098174535</v>
       </c>
       <c r="H36" t="n">
-        <v>217.8215942870347</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I36" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="J36" t="n">
-        <v>534.523037816823</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.475742496126</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L36" t="n">
-        <v>1932.25771682719</v>
+        <v>1932.257716827147</v>
       </c>
       <c r="M36" t="n">
-        <v>2622.421408570064</v>
+        <v>2622.421408570006</v>
       </c>
       <c r="N36" t="n">
-        <v>3373.965164215382</v>
+        <v>3373.96516421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4184.41759976704</v>
+        <v>4184.417599766954</v>
       </c>
       <c r="P36" t="n">
-        <v>4769.039035368636</v>
+        <v>4769.039035368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>4935.918197646057</v>
+        <v>4935.918197645942</v>
       </c>
       <c r="R36" t="n">
-        <v>4586.765210100882</v>
+        <v>4596.501722949073</v>
       </c>
       <c r="S36" t="n">
-        <v>4234.995824375885</v>
+        <v>4234.99582437609</v>
       </c>
       <c r="T36" t="n">
-        <v>3903.936589450642</v>
+        <v>3903.936589450833</v>
       </c>
       <c r="U36" t="n">
-        <v>3569.522608751402</v>
+        <v>3569.522608751578</v>
       </c>
       <c r="V36" t="n">
-        <v>3220.521934820588</v>
+        <v>3220.52193482075</v>
       </c>
       <c r="W36" t="n">
-        <v>2853.478356123806</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X36" t="n">
-        <v>2499.071548603228</v>
+        <v>2499.07154860336</v>
       </c>
       <c r="Y36" t="n">
-        <v>2165.34286904149</v>
+        <v>2165.342869041608</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="C37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="D37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="G37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="I37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="J37" t="n">
-        <v>301.2071077016462</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K37" t="n">
-        <v>289.6120223916803</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L37" t="n">
-        <v>200.393884991057</v>
+        <v>200.393884991013</v>
       </c>
       <c r="M37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="N37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="O37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="P37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="Q37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="R37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="T37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="U37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="V37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="W37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="X37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2603.044712321027</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C38" t="n">
-        <v>2149.029986823053</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.545991126235</v>
+        <v>1734.545991126234</v>
       </c>
       <c r="E38" t="n">
         <v>1326.098223846569</v>
       </c>
       <c r="F38" t="n">
-        <v>917.1188009091836</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G38" t="n">
-        <v>513.3153539515863</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H38" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="I38" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="J38" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="K38" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="L38" t="n">
-        <v>686.6266407758892</v>
+        <v>1673.171078589723</v>
       </c>
       <c r="M38" t="n">
-        <v>1891.419148449548</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N38" t="n">
-        <v>3209.81188139014</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O38" t="n">
-        <v>4828.728738829182</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P38" t="n">
-        <v>6258.625023691064</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q38" t="n">
-        <v>7124.000000000013</v>
+        <v>7124</v>
       </c>
       <c r="R38" t="n">
-        <v>7124.000000000013</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S38" t="n">
-        <v>6716.101072644235</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T38" t="n">
-        <v>6141.150792130635</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U38" t="n">
-        <v>5485.694287317815</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V38" t="n">
-        <v>4849.48113159375</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W38" t="n">
-        <v>4204.659438683702</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X38" t="n">
-        <v>3606.394960440603</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y38" t="n">
-        <v>3089.912705205445</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="39">
@@ -7235,34 +7235,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1846.598872429157</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C39" t="n">
         <v>1551.548455817521</v>
       </c>
       <c r="D39" t="n">
-        <v>1269.793216526913</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E39" t="n">
-        <v>993.3567546865967</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F39" t="n">
-        <v>719.9868129311656</v>
+        <v>719.9868129311652</v>
       </c>
       <c r="G39" t="n">
-        <v>462.8114098174539</v>
+        <v>462.8114098174536</v>
       </c>
       <c r="H39" t="n">
-        <v>217.8215942870494</v>
+        <v>217.8215942870492</v>
       </c>
       <c r="I39" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="J39" t="n">
-        <v>534.5230378168087</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.475742496098</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L39" t="n">
         <v>1932.257716827147</v>
@@ -7298,7 +7298,7 @@
         <v>3210.78542197243</v>
       </c>
       <c r="W39" t="n">
-        <v>2853.478356123954</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X39" t="n">
         <v>2499.07154860336</v>
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="C40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="D40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="E40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="F40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="G40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="H40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="I40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="J40" t="n">
-        <v>301.2071077016319</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K40" t="n">
-        <v>289.6120223916512</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="L40" t="n">
-        <v>200.3938849910133</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="M40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="N40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="O40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="P40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="R40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="T40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="U40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="V40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="W40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="X40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.4800000000002</v>
+        <v>142.48</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2602.982645855861</v>
+        <v>2603.044712321026</v>
       </c>
       <c r="C41" t="n">
-        <v>2148.967920357887</v>
+        <v>2149.029986823052</v>
       </c>
       <c r="D41" t="n">
         <v>1734.545991126234</v>
@@ -7405,10 +7405,10 @@
         <v>1326.098223846569</v>
       </c>
       <c r="F41" t="n">
-        <v>917.1188009091834</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G41" t="n">
-        <v>513.3153539515861</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H41" t="n">
         <v>142.48</v>
@@ -7426,43 +7426,43 @@
         <v>1673.171078589723</v>
       </c>
       <c r="M41" t="n">
-        <v>1891.419148449537</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N41" t="n">
-        <v>3209.811881390129</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O41" t="n">
-        <v>4828.728738829172</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P41" t="n">
-        <v>6258.625023691053</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q41" t="n">
-        <v>7124.000000000002</v>
+        <v>7124</v>
       </c>
       <c r="R41" t="n">
         <v>7124.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6716.039006179068</v>
+        <v>6716.101072644233</v>
       </c>
       <c r="T41" t="n">
-        <v>6141.088725665468</v>
+        <v>6141.150792130633</v>
       </c>
       <c r="U41" t="n">
-        <v>5485.632220852649</v>
+        <v>5485.694287317814</v>
       </c>
       <c r="V41" t="n">
-        <v>4849.419065128584</v>
+        <v>4849.48113159375</v>
       </c>
       <c r="W41" t="n">
-        <v>4204.597372218536</v>
+        <v>4204.659438683701</v>
       </c>
       <c r="X41" t="n">
-        <v>3606.332893975437</v>
+        <v>3606.394960440603</v>
       </c>
       <c r="Y41" t="n">
-        <v>3089.850638740279</v>
+        <v>3089.912705205445</v>
       </c>
     </row>
     <row r="42">
@@ -7472,22 +7472,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1836.862359580836</v>
+        <v>1846.598872429156</v>
       </c>
       <c r="C42" t="n">
-        <v>1541.811942969201</v>
+        <v>1551.548455817521</v>
       </c>
       <c r="D42" t="n">
-        <v>1260.056703678592</v>
+        <v>1269.793216526912</v>
       </c>
       <c r="E42" t="n">
-        <v>983.6202418382761</v>
+        <v>993.3567546865963</v>
       </c>
       <c r="F42" t="n">
-        <v>719.9868129311653</v>
+        <v>719.9868129311651</v>
       </c>
       <c r="G42" t="n">
-        <v>462.8114098174536</v>
+        <v>462.8114098174535</v>
       </c>
       <c r="H42" t="n">
         <v>217.8215942870492</v>
@@ -7496,10 +7496,10 @@
         <v>142.48</v>
       </c>
       <c r="J42" t="n">
-        <v>534.5230378168085</v>
+        <v>534.5230378168084</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.475742496098</v>
+        <v>1133.475742496097</v>
       </c>
       <c r="L42" t="n">
         <v>1932.257716827147</v>
@@ -7535,13 +7535,13 @@
         <v>3210.78542197243</v>
       </c>
       <c r="W42" t="n">
-        <v>2843.741843275633</v>
+        <v>2853.478356123953</v>
       </c>
       <c r="X42" t="n">
-        <v>2489.335035755039</v>
+        <v>2499.07154860336</v>
       </c>
       <c r="Y42" t="n">
-        <v>2155.606356193287</v>
+        <v>2165.342869041608</v>
       </c>
     </row>
     <row r="43">
@@ -7575,16 +7575,16 @@
         <v>142.48</v>
       </c>
       <c r="J43" t="n">
-        <v>301.2071077016317</v>
+        <v>301.2071077016316</v>
       </c>
       <c r="K43" t="n">
-        <v>289.6120223916511</v>
+        <v>289.612022391651</v>
       </c>
       <c r="L43" t="n">
-        <v>200.3938849910131</v>
+        <v>200.393884991013</v>
       </c>
       <c r="M43" t="n">
-        <v>142.48</v>
+        <v>200.393884991013</v>
       </c>
       <c r="N43" t="n">
         <v>142.48</v>
@@ -7630,22 +7630,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2602.862793224876</v>
+        <v>2602.862793224874</v>
       </c>
       <c r="C44" t="n">
-        <v>2149.029986823052</v>
+        <v>2148.8480677269</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.545991126234</v>
+        <v>1734.364072030082</v>
       </c>
       <c r="E44" t="n">
-        <v>1326.098223846569</v>
+        <v>1325.916304750417</v>
       </c>
       <c r="F44" t="n">
-        <v>917.1188009091834</v>
+        <v>917.1188009091832</v>
       </c>
       <c r="G44" t="n">
-        <v>513.3153539515861</v>
+        <v>513.315353951586</v>
       </c>
       <c r="H44" t="n">
         <v>142.48</v>
@@ -7660,46 +7660,46 @@
         <v>142.48</v>
       </c>
       <c r="L44" t="n">
-        <v>686.6266407758783</v>
+        <v>1673.171078589723</v>
       </c>
       <c r="M44" t="n">
-        <v>1891.419148449537</v>
+        <v>1891.419148449535</v>
       </c>
       <c r="N44" t="n">
-        <v>3209.811881390129</v>
+        <v>3209.811881390127</v>
       </c>
       <c r="O44" t="n">
-        <v>4828.728738829172</v>
+        <v>4828.72873882917</v>
       </c>
       <c r="P44" t="n">
-        <v>6258.625023691053</v>
+        <v>6258.625023691051</v>
       </c>
       <c r="Q44" t="n">
-        <v>7124.000000000002</v>
+        <v>7124</v>
       </c>
       <c r="R44" t="n">
-        <v>7123.880147369016</v>
+        <v>7123.880147369014</v>
       </c>
       <c r="S44" t="n">
-        <v>6715.919153548081</v>
+        <v>6715.91915354808</v>
       </c>
       <c r="T44" t="n">
-        <v>6140.968873034482</v>
+        <v>6140.968873034481</v>
       </c>
       <c r="U44" t="n">
-        <v>5485.512368221664</v>
+        <v>5485.512368221662</v>
       </c>
       <c r="V44" t="n">
-        <v>4849.299212497599</v>
+        <v>4849.299212497597</v>
       </c>
       <c r="W44" t="n">
-        <v>4204.477519587551</v>
+        <v>4204.477519587549</v>
       </c>
       <c r="X44" t="n">
-        <v>3606.213041344452</v>
+        <v>3606.21304134445</v>
       </c>
       <c r="Y44" t="n">
-        <v>3089.730786109294</v>
+        <v>3089.730786109292</v>
       </c>
     </row>
     <row r="45">
@@ -7709,25 +7709,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1003.718159280203</v>
+        <v>1087.213409525673</v>
       </c>
       <c r="C45" t="n">
-        <v>638.9707729715974</v>
+        <v>1087.213409525673</v>
       </c>
       <c r="D45" t="n">
-        <v>287.5185639840189</v>
+        <v>1087.213409525673</v>
       </c>
       <c r="E45" t="n">
-        <v>287.5185639840189</v>
+        <v>784.0391580380555</v>
       </c>
       <c r="F45" t="n">
-        <v>287.5185639840189</v>
+        <v>784.0391580380555</v>
       </c>
       <c r="G45" t="n">
-        <v>287.5185639840189</v>
+        <v>457.1667852273741</v>
       </c>
       <c r="H45" t="n">
-        <v>287.5185639840189</v>
+        <v>142.48</v>
       </c>
       <c r="I45" t="n">
         <v>142.48</v>
@@ -7775,10 +7775,10 @@
         <v>1879.080025093816</v>
       </c>
       <c r="X45" t="n">
-        <v>1795.584774848345</v>
+        <v>1879.080025093816</v>
       </c>
       <c r="Y45" t="n">
-        <v>1392.159125589624</v>
+        <v>1475.654375835094</v>
       </c>
     </row>
     <row r="46">
@@ -7812,10 +7812,10 @@
         <v>142.48</v>
       </c>
       <c r="J46" t="n">
-        <v>232.8971077016317</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="K46" t="n">
-        <v>151.6050526946814</v>
+        <v>232.8971077016316</v>
       </c>
       <c r="L46" t="n">
         <v>142.48</v>
@@ -8221,19 +8221,19 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M5" t="n">
         <v>1060.271045550332</v>
       </c>
       <c r="N5" t="n">
-        <v>1096.663422488788</v>
+        <v>100.1538893434887</v>
       </c>
       <c r="O5" t="n">
         <v>1032.917105959907</v>
@@ -8458,16 +8458,16 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.271045550332</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N8" t="n">
         <v>1096.663422488788</v>
@@ -8695,16 +8695,16 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J11" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>620.6350865661518</v>
+        <v>832.8744127293169</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1096.663422488788</v>
@@ -8932,13 +8932,13 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>316.8654948213036</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1060.271045550332</v>
@@ -9178,19 +9178,19 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>871.7571809089263</v>
       </c>
       <c r="N17" t="n">
-        <v>1096.663422488788</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1032.917105959907</v>
       </c>
       <c r="P17" t="n">
         <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.94471928849913</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9643,13 +9643,13 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K23" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>520.1588651527259</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O26" t="n">
         <v>1032.917105959907</v>
@@ -10117,7 +10117,7 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M38" t="n">
-        <v>1060.271045550332</v>
+        <v>63.76151240503282</v>
       </c>
       <c r="N38" t="n">
         <v>1096.663422488788</v>
@@ -11065,7 +11065,7 @@
         <v>116.8281452557111</v>
       </c>
       <c r="J41" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
-        <v>764.714723460311</v>
+        <v>63.76151240503282</v>
       </c>
       <c r="N41" t="n">
         <v>1096.663422488788</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M44" t="n">
-        <v>1060.271045550332</v>
+        <v>63.76151240503282</v>
       </c>
       <c r="N44" t="n">
         <v>1096.663422488788</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.1186541046818093</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.06144580050994364</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1800999003114612</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
-        <v>339.6362423378769</v>
+        <v>203.5532583885672</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23405,13 +23405,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>263.3084088168243</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="13">
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.639147719837013</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9.639147711510418</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23658,76 +23658,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>218.1138003367294</v>
+        <v>218.1138003370787</v>
       </c>
       <c r="C16" t="n">
-        <v>203.7252466476954</v>
+        <v>203.7252466480447</v>
       </c>
       <c r="D16" t="n">
-        <v>216.5362180552062</v>
+        <v>216.5362180555555</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9809048366073</v>
+        <v>211.9809048369565</v>
       </c>
       <c r="F16" t="n">
-        <v>205.3828559673927</v>
+        <v>205.3828559677419</v>
       </c>
       <c r="G16" t="n">
-        <v>174.2532171034758</v>
+        <v>174.2532171038251</v>
       </c>
       <c r="H16" t="n">
-        <v>143.8505687242202</v>
+        <v>143.8505687245694</v>
       </c>
       <c r="I16" t="n">
-        <v>53.78355398042476</v>
+        <v>53.783553980774</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>11.47913445653157</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>88.32595602628237</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>170.9381851726925</v>
+        <v>113.6034390319389</v>
       </c>
       <c r="N16" t="n">
-        <v>228.1659113369093</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O16" t="n">
-        <v>161.2046782733802</v>
+        <v>318.344514898687</v>
       </c>
       <c r="P16" t="n">
-        <v>401.8762251967808</v>
+        <v>401.87622519713</v>
       </c>
       <c r="Q16" t="n">
-        <v>506.8962664252488</v>
+        <v>506.896266425598</v>
       </c>
       <c r="R16" t="n">
-        <v>577.0877345381789</v>
+        <v>577.0877345385281</v>
       </c>
       <c r="S16" t="n">
-        <v>262.1672338008669</v>
+        <v>262.1672338012161</v>
       </c>
       <c r="T16" t="n">
-        <v>133.3735828993511</v>
+        <v>133.3735828997004</v>
       </c>
       <c r="U16" t="n">
-        <v>81.86071914296113</v>
+        <v>81.86071914331038</v>
       </c>
       <c r="V16" t="n">
-        <v>130.1703102158669</v>
+        <v>130.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>157.3728098383604</v>
+        <v>157.3728098387097</v>
       </c>
       <c r="X16" t="n">
-        <v>178.4436454297583</v>
+        <v>178.4436454301076</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4653528491131</v>
+        <v>218.4653528494624</v>
       </c>
     </row>
     <row r="17">
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9.639147711508599</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.639147719837354</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23895,28 +23895,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>218.1138003367294</v>
+        <v>218.1138003370787</v>
       </c>
       <c r="C19" t="n">
-        <v>203.7252466476954</v>
+        <v>203.7252466480446</v>
       </c>
       <c r="D19" t="n">
-        <v>216.5362180552062</v>
+        <v>216.5362180555555</v>
       </c>
       <c r="E19" t="n">
-        <v>211.9809048366073</v>
+        <v>211.9809048369565</v>
       </c>
       <c r="F19" t="n">
-        <v>205.3828559673927</v>
+        <v>205.3828559677419</v>
       </c>
       <c r="G19" t="n">
-        <v>174.2532171034758</v>
+        <v>174.2532171038251</v>
       </c>
       <c r="H19" t="n">
-        <v>143.8505687242202</v>
+        <v>143.8505687245694</v>
       </c>
       <c r="I19" t="n">
-        <v>53.78355398042476</v>
+        <v>53.783553980774</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23928,43 +23928,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>113.6034390305489</v>
+        <v>113.6034390319388</v>
       </c>
       <c r="N19" t="n">
-        <v>228.1659113369093</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O19" t="n">
-        <v>318.3445148983378</v>
+        <v>318.344514898687</v>
       </c>
       <c r="P19" t="n">
-        <v>401.8762251967808</v>
+        <v>401.87622519713</v>
       </c>
       <c r="Q19" t="n">
-        <v>506.8962664252488</v>
+        <v>506.896266425598</v>
       </c>
       <c r="R19" t="n">
-        <v>577.0877345381789</v>
+        <v>577.087734538528</v>
       </c>
       <c r="S19" t="n">
-        <v>262.1672338008669</v>
+        <v>262.1672338012161</v>
       </c>
       <c r="T19" t="n">
-        <v>133.3735828993511</v>
+        <v>133.3735828997003</v>
       </c>
       <c r="U19" t="n">
-        <v>81.86071914296113</v>
+        <v>81.86071914331039</v>
       </c>
       <c r="V19" t="n">
-        <v>130.1703102158669</v>
+        <v>130.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>157.3728098383604</v>
+        <v>157.3728098387097</v>
       </c>
       <c r="X19" t="n">
-        <v>178.4436454297583</v>
+        <v>178.4436454301075</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.4653528491131</v>
+        <v>218.4653528494623</v>
       </c>
     </row>
     <row r="20">
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.639147719837354</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>9.639147711395481</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24132,28 +24132,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>218.1138003367294</v>
+        <v>218.1138003370787</v>
       </c>
       <c r="C22" t="n">
-        <v>203.7252466476954</v>
+        <v>203.7252466480446</v>
       </c>
       <c r="D22" t="n">
-        <v>216.5362180552062</v>
+        <v>216.5362180555555</v>
       </c>
       <c r="E22" t="n">
-        <v>211.9809048366073</v>
+        <v>211.9809048369565</v>
       </c>
       <c r="F22" t="n">
-        <v>205.3828559673927</v>
+        <v>205.3828559677419</v>
       </c>
       <c r="G22" t="n">
-        <v>174.2532171034758</v>
+        <v>174.2532171038251</v>
       </c>
       <c r="H22" t="n">
-        <v>143.8505687242202</v>
+        <v>143.8505687245694</v>
       </c>
       <c r="I22" t="n">
-        <v>53.78355398042476</v>
+        <v>53.783553980774</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24162,46 +24162,46 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>88.32595602663156</v>
       </c>
       <c r="M22" t="n">
-        <v>170.9381851726925</v>
+        <v>25.27748300530729</v>
       </c>
       <c r="N22" t="n">
-        <v>170.8311651947656</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O22" t="n">
-        <v>318.3445148983378</v>
+        <v>318.344514898687</v>
       </c>
       <c r="P22" t="n">
-        <v>401.8762251967808</v>
+        <v>401.87622519713</v>
       </c>
       <c r="Q22" t="n">
-        <v>506.8962664252488</v>
+        <v>506.896266425598</v>
       </c>
       <c r="R22" t="n">
-        <v>577.0877345381789</v>
+        <v>577.087734538528</v>
       </c>
       <c r="S22" t="n">
-        <v>262.1672338008669</v>
+        <v>262.1672338012161</v>
       </c>
       <c r="T22" t="n">
-        <v>133.3735828993511</v>
+        <v>133.3735828997003</v>
       </c>
       <c r="U22" t="n">
-        <v>81.86071914296113</v>
+        <v>81.86071914331039</v>
       </c>
       <c r="V22" t="n">
-        <v>130.1703102158669</v>
+        <v>130.1703102162162</v>
       </c>
       <c r="W22" t="n">
-        <v>157.3728098383604</v>
+        <v>157.3728098387097</v>
       </c>
       <c r="X22" t="n">
-        <v>178.4436454297583</v>
+        <v>178.4436454301075</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.4653528491131</v>
+        <v>218.4653528494623</v>
       </c>
     </row>
     <row r="23">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>9.639147719836956</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.639147711508656</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24369,28 +24369,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>218.1138003367294</v>
+        <v>218.1138003370787</v>
       </c>
       <c r="C25" t="n">
-        <v>203.7252466476954</v>
+        <v>203.7252466480447</v>
       </c>
       <c r="D25" t="n">
-        <v>216.5362180552062</v>
+        <v>216.5362180555555</v>
       </c>
       <c r="E25" t="n">
-        <v>211.9809048366073</v>
+        <v>211.9809048369565</v>
       </c>
       <c r="F25" t="n">
-        <v>205.3828559673927</v>
+        <v>205.3828559677419</v>
       </c>
       <c r="G25" t="n">
-        <v>174.2532171034759</v>
+        <v>174.2532171038251</v>
       </c>
       <c r="H25" t="n">
-        <v>143.8505687242202</v>
+        <v>143.8505687245694</v>
       </c>
       <c r="I25" t="n">
-        <v>53.78355398042476</v>
+        <v>53.78355398077399</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24399,46 +24399,46 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>88.3259560266316</v>
       </c>
       <c r="M25" t="n">
-        <v>113.6034390305488</v>
+        <v>25.27748300530729</v>
       </c>
       <c r="N25" t="n">
-        <v>228.1659113369093</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O25" t="n">
-        <v>318.3445148983378</v>
+        <v>318.344514898687</v>
       </c>
       <c r="P25" t="n">
-        <v>401.8762251967808</v>
+        <v>401.87622519713</v>
       </c>
       <c r="Q25" t="n">
-        <v>506.8962664252488</v>
+        <v>506.896266425598</v>
       </c>
       <c r="R25" t="n">
-        <v>577.0877345381788</v>
+        <v>577.0877345385281</v>
       </c>
       <c r="S25" t="n">
-        <v>262.1672338008668</v>
+        <v>262.1672338012161</v>
       </c>
       <c r="T25" t="n">
-        <v>133.3735828993511</v>
+        <v>133.3735828997004</v>
       </c>
       <c r="U25" t="n">
-        <v>81.86071914296114</v>
+        <v>81.86071914331039</v>
       </c>
       <c r="V25" t="n">
-        <v>130.1703102158669</v>
+        <v>130.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>157.3728098383604</v>
+        <v>157.3728098387097</v>
       </c>
       <c r="X25" t="n">
-        <v>178.4436454297583</v>
+        <v>178.4436454301076</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.4653528491131</v>
+        <v>218.4653528494624</v>
       </c>
     </row>
     <row r="26">
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>9.639147719836672</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.639147719837354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>218.1138003370787</v>
       </c>
       <c r="C28" t="n">
-        <v>203.7252466480446</v>
+        <v>203.7252466480447</v>
       </c>
       <c r="D28" t="n">
         <v>216.5362180555555</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>170.9381851730417</v>
+        <v>113.6034390319389</v>
       </c>
       <c r="N28" t="n">
-        <v>170.8311651961556</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O28" t="n">
         <v>318.344514898687</v>
@@ -24654,16 +24654,16 @@
         <v>506.896266425598</v>
       </c>
       <c r="R28" t="n">
-        <v>577.087734538528</v>
+        <v>577.0877345385281</v>
       </c>
       <c r="S28" t="n">
         <v>262.1672338012161</v>
       </c>
       <c r="T28" t="n">
-        <v>133.3735828997003</v>
+        <v>133.3735828997004</v>
       </c>
       <c r="U28" t="n">
-        <v>81.86071914331039</v>
+        <v>81.86071914331038</v>
       </c>
       <c r="V28" t="n">
         <v>130.1703102162162</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.639147719606683</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>9.639147719469122</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>218.1138003370641</v>
+        <v>218.113800337064</v>
       </c>
       <c r="C31" t="n">
         <v>203.7252466480301</v>
@@ -24852,19 +24852,19 @@
         <v>216.5362180555409</v>
       </c>
       <c r="E31" t="n">
-        <v>211.980904836942</v>
+        <v>211.9809048369419</v>
       </c>
       <c r="F31" t="n">
-        <v>205.3828559677274</v>
+        <v>205.3828559677273</v>
       </c>
       <c r="G31" t="n">
         <v>174.2532171038105</v>
       </c>
       <c r="H31" t="n">
-        <v>143.8505687245549</v>
+        <v>143.8505687245548</v>
       </c>
       <c r="I31" t="n">
-        <v>53.78355398075945</v>
+        <v>53.78355398075939</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24873,10 +24873,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>88.32595602661701</v>
       </c>
       <c r="M31" t="n">
-        <v>113.603439031881</v>
+        <v>25.2774830052638</v>
       </c>
       <c r="N31" t="n">
         <v>228.165911337244</v>
@@ -24885,22 +24885,22 @@
         <v>318.3445148986725</v>
       </c>
       <c r="P31" t="n">
-        <v>401.8762251971154</v>
+        <v>401.8762251971153</v>
       </c>
       <c r="Q31" t="n">
         <v>506.8962664255835</v>
       </c>
       <c r="R31" t="n">
-        <v>577.0877345385136</v>
+        <v>577.0877345385135</v>
       </c>
       <c r="S31" t="n">
-        <v>262.1672338012016</v>
+        <v>262.1672338012015</v>
       </c>
       <c r="T31" t="n">
-        <v>133.3735828996858</v>
+        <v>133.3735828996857</v>
       </c>
       <c r="U31" t="n">
-        <v>81.86071914329582</v>
+        <v>81.86071914329581</v>
       </c>
       <c r="V31" t="n">
         <v>130.1703102162016</v>
@@ -24909,7 +24909,7 @@
         <v>157.3728098386951</v>
       </c>
       <c r="X31" t="n">
-        <v>178.443645430093</v>
+        <v>178.4436454300929</v>
       </c>
       <c r="Y31" t="n">
         <v>218.4653528494478</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.639147719837354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>9.639147719476284</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25080,28 +25080,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>218.1138003370641</v>
+        <v>218.1138003370787</v>
       </c>
       <c r="C34" t="n">
-        <v>203.7252466480301</v>
+        <v>203.7252466480446</v>
       </c>
       <c r="D34" t="n">
-        <v>216.5362180555409</v>
+        <v>216.5362180555555</v>
       </c>
       <c r="E34" t="n">
-        <v>211.980904836942</v>
+        <v>211.9809048369565</v>
       </c>
       <c r="F34" t="n">
-        <v>205.3828559677274</v>
+        <v>205.3828559677419</v>
       </c>
       <c r="G34" t="n">
-        <v>174.2532171038105</v>
+        <v>174.2532171038251</v>
       </c>
       <c r="H34" t="n">
-        <v>143.8505687245549</v>
+        <v>143.8505687245694</v>
       </c>
       <c r="I34" t="n">
-        <v>53.78355398075945</v>
+        <v>53.783553980774</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25113,43 +25113,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>113.603439031881</v>
+        <v>113.6034390319388</v>
       </c>
       <c r="N34" t="n">
-        <v>228.165911337244</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O34" t="n">
-        <v>318.3445148986725</v>
+        <v>318.344514898687</v>
       </c>
       <c r="P34" t="n">
-        <v>401.8762251971154</v>
+        <v>401.87622519713</v>
       </c>
       <c r="Q34" t="n">
-        <v>506.8962664255835</v>
+        <v>506.896266425598</v>
       </c>
       <c r="R34" t="n">
-        <v>577.0877345385136</v>
+        <v>577.087734538528</v>
       </c>
       <c r="S34" t="n">
-        <v>262.1672338012016</v>
+        <v>262.1672338012161</v>
       </c>
       <c r="T34" t="n">
-        <v>133.3735828996858</v>
+        <v>133.3735828997003</v>
       </c>
       <c r="U34" t="n">
-        <v>81.86071914329582</v>
+        <v>81.86071914331039</v>
       </c>
       <c r="V34" t="n">
-        <v>130.1703102162016</v>
+        <v>130.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>157.3728098386951</v>
+        <v>157.3728098387097</v>
       </c>
       <c r="X34" t="n">
-        <v>178.443645430093</v>
+        <v>178.4436454301075</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.4653528494478</v>
+        <v>218.4653528494623</v>
       </c>
     </row>
     <row r="35">
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.639147719837354</v>
       </c>
       <c r="S36" t="n">
-        <v>9.639147719491348</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25317,28 +25317,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>218.1138003370641</v>
+        <v>218.1138003370787</v>
       </c>
       <c r="C37" t="n">
-        <v>203.7252466480301</v>
+        <v>203.7252466480447</v>
       </c>
       <c r="D37" t="n">
-        <v>216.5362180555409</v>
+        <v>216.5362180555555</v>
       </c>
       <c r="E37" t="n">
-        <v>211.980904836942</v>
+        <v>211.9809048369565</v>
       </c>
       <c r="F37" t="n">
-        <v>205.3828559677274</v>
+        <v>205.3828559677419</v>
       </c>
       <c r="G37" t="n">
-        <v>174.2532171038105</v>
+        <v>174.2532171038251</v>
       </c>
       <c r="H37" t="n">
-        <v>143.8505687245549</v>
+        <v>143.8505687245694</v>
       </c>
       <c r="I37" t="n">
-        <v>53.78355398075945</v>
+        <v>53.783553980774</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25350,43 +25350,43 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>113.603439031881</v>
+        <v>113.6034390319388</v>
       </c>
       <c r="N37" t="n">
-        <v>228.165911337244</v>
+        <v>228.1659113372585</v>
       </c>
       <c r="O37" t="n">
-        <v>318.3445148986725</v>
+        <v>318.344514898687</v>
       </c>
       <c r="P37" t="n">
-        <v>401.8762251971154</v>
+        <v>401.87622519713</v>
       </c>
       <c r="Q37" t="n">
-        <v>506.8962664255835</v>
+        <v>506.896266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>577.0877345385135</v>
+        <v>577.087734538528</v>
       </c>
       <c r="S37" t="n">
-        <v>262.1672338012015</v>
+        <v>262.1672338012161</v>
       </c>
       <c r="T37" t="n">
-        <v>133.3735828996858</v>
+        <v>133.3735828997003</v>
       </c>
       <c r="U37" t="n">
-        <v>81.86071914329584</v>
+        <v>81.86071914331039</v>
       </c>
       <c r="V37" t="n">
-        <v>130.1703102162016</v>
+        <v>130.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>157.3728098386951</v>
+        <v>157.3728098387097</v>
       </c>
       <c r="X37" t="n">
-        <v>178.443645430093</v>
+        <v>178.4436454301075</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4653528494478</v>
+        <v>218.4653528494623</v>
       </c>
     </row>
     <row r="38">
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>9.639147719837524</v>
+        <v>9.639147719837069</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>218.1138003370787</v>
       </c>
       <c r="C40" t="n">
-        <v>203.7252466480446</v>
+        <v>203.7252466480447</v>
       </c>
       <c r="D40" t="n">
         <v>216.5362180555555</v>
@@ -25581,13 +25581,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>11.47913445688081</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>88.32595602663162</v>
       </c>
       <c r="M40" t="n">
-        <v>113.6034390319388</v>
+        <v>13.79834854842647</v>
       </c>
       <c r="N40" t="n">
         <v>228.1659113372585</v>
@@ -25602,16 +25602,16 @@
         <v>506.896266425598</v>
       </c>
       <c r="R40" t="n">
-        <v>577.087734538528</v>
+        <v>577.0877345385281</v>
       </c>
       <c r="S40" t="n">
         <v>262.1672338012161</v>
       </c>
       <c r="T40" t="n">
-        <v>133.3735828997003</v>
+        <v>133.3735828997004</v>
       </c>
       <c r="U40" t="n">
-        <v>81.86071914331039</v>
+        <v>81.86071914331038</v>
       </c>
       <c r="V40" t="n">
         <v>130.1703102162162</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>9.639147719837126</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>9.639147719837069</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>218.1138003370787</v>
       </c>
       <c r="C43" t="n">
-        <v>203.7252466480446</v>
+        <v>203.7252466480447</v>
       </c>
       <c r="D43" t="n">
         <v>216.5362180555555</v>
@@ -25812,7 +25812,7 @@
         <v>143.8505687245694</v>
       </c>
       <c r="I43" t="n">
-        <v>53.783553980774</v>
+        <v>53.78355398077399</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>113.6034390319388</v>
+        <v>170.9381851730417</v>
       </c>
       <c r="N43" t="n">
-        <v>228.1659113372585</v>
+        <v>170.8311651961557</v>
       </c>
       <c r="O43" t="n">
         <v>318.344514898687</v>
@@ -25839,7 +25839,7 @@
         <v>506.896266425598</v>
       </c>
       <c r="R43" t="n">
-        <v>577.087734538528</v>
+        <v>577.0877345385281</v>
       </c>
       <c r="S43" t="n">
         <v>262.1672338012161</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1800999051888539</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25952,25 +25952,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>42.52958824917113</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>323.6036490825745</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>311.5399173751003</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>143.5881783441787</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>337.2024417023717</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26055,10 +26055,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>80.47913445688081</v>
       </c>
       <c r="L46" t="n">
-        <v>148.2921538588971</v>
+        <v>67.81301940201629</v>
       </c>
       <c r="M46" t="n">
         <v>239.9381851730417</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14502.18375210548</v>
+        <v>1227892.61432428</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29004.36750421096</v>
+        <v>2455785.228648559</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43506.55125631643</v>
+        <v>3683677.84297284</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60985.75265679302</v>
+        <v>4693625.173345199</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77420.21339930322</v>
+        <v>5810309.6790992</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>93854.67414181342</v>
+        <v>6926994.184853198</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>110289.1348843236</v>
+        <v>8043678.690607195</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>126723.5956268338</v>
+        <v>9160363.196361192</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>143158.0563693492</v>
+        <v>10277047.70211519</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>159592.5171118645</v>
+        <v>11393732.2078692</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>176026.9778543798</v>
+        <v>12510416.7136232</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>192461.4385968951</v>
+        <v>13627101.2193772</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>208895.8993394106</v>
+        <v>14743785.72513121</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>225330.3600819261</v>
+        <v>15860470.23088522</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>242809.5614824048</v>
+        <v>16870417.56125758</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577608</v>
       </c>
       <c r="C2" t="n">
+        <v>976017.2062577611</v>
+      </c>
+      <c r="D2" t="n">
         <v>976017.2062577609</v>
       </c>
-      <c r="D2" t="n">
-        <v>976017.206257761</v>
-      </c>
       <c r="E2" t="n">
-        <v>802778.6472193559</v>
+        <v>802778.647219055</v>
       </c>
       <c r="F2" t="n">
-        <v>887621.0173946362</v>
+        <v>887621.0173942064</v>
       </c>
       <c r="G2" t="n">
-        <v>887621.0173946361</v>
+        <v>887621.0173942065</v>
       </c>
       <c r="H2" t="n">
-        <v>887621.0173946398</v>
+        <v>887621.0173942065</v>
       </c>
       <c r="I2" t="n">
-        <v>887621.0173946362</v>
+        <v>887621.0173942067</v>
       </c>
       <c r="J2" t="n">
-        <v>887621.0173942067</v>
+        <v>887621.0173942064</v>
       </c>
       <c r="K2" t="n">
-        <v>887621.0173942252</v>
+        <v>887621.0173942207</v>
       </c>
       <c r="L2" t="n">
-        <v>887621.0173942251</v>
+        <v>887621.017394206</v>
       </c>
       <c r="M2" t="n">
-        <v>887621.0173942246</v>
+        <v>887621.0173942059</v>
       </c>
       <c r="N2" t="n">
-        <v>887621.0173942065</v>
+        <v>887621.0173942066</v>
       </c>
       <c r="O2" t="n">
-        <v>887621.0173942065</v>
+        <v>887621.0173942063</v>
       </c>
       <c r="P2" t="n">
-        <v>802778.6472190552</v>
+        <v>802778.6472190554</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1595086.999999999</v>
+        <v>1595087</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55200.00000027941</v>
+        <v>55200.00000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>9.604264050722122e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>626912.0000000012</v>
+        <v>626912</v>
       </c>
       <c r="K3" t="n">
-        <v>55200.00000001166</v>
+        <v>55200.00000000001</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,46 +26423,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129315.1809938315</v>
+        <v>129315.1809938311</v>
       </c>
       <c r="C4" t="n">
-        <v>128801.0841236042</v>
+        <v>128801.0841236038</v>
       </c>
       <c r="D4" t="n">
-        <v>128286.2898488843</v>
+        <v>128286.2898488844</v>
       </c>
       <c r="E4" t="n">
-        <v>1118.136409561248</v>
+        <v>1118.13640934095</v>
       </c>
       <c r="F4" t="n">
-        <v>63149.78620472198</v>
+        <v>63149.78620440808</v>
       </c>
       <c r="G4" t="n">
-        <v>62895.70026010046</v>
+        <v>62895.70025978785</v>
       </c>
       <c r="H4" t="n">
-        <v>62641.26165868971</v>
+        <v>62641.26165837541</v>
       </c>
       <c r="I4" t="n">
-        <v>62386.46785685611</v>
+        <v>62386.46785654605</v>
       </c>
       <c r="J4" t="n">
-        <v>62131.31627733646</v>
+        <v>62131.3162773375</v>
       </c>
       <c r="K4" t="n">
-        <v>61875.80430982907</v>
+        <v>61875.80430982682</v>
       </c>
       <c r="L4" t="n">
-        <v>61619.92930843958</v>
+        <v>61619.92930842749</v>
       </c>
       <c r="M4" t="n">
-        <v>61363.68859233386</v>
+        <v>61363.68859232166</v>
       </c>
       <c r="N4" t="n">
-        <v>61107.07944467472</v>
+        <v>61107.07944467515</v>
       </c>
       <c r="O4" t="n">
-        <v>60850.09911198483</v>
+        <v>60850.09911198492</v>
       </c>
       <c r="P4" t="n">
         <v>1118.13640934095</v>
@@ -26475,46 +26475,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163559.7999999998</v>
+        <v>163559.8</v>
       </c>
       <c r="C5" t="n">
-        <v>163559.7999999999</v>
+        <v>163559.8</v>
       </c>
       <c r="D5" t="n">
-        <v>163559.7999999999</v>
+        <v>163559.8</v>
       </c>
       <c r="E5" t="n">
-        <v>129932.1999999999</v>
+        <v>129932.2</v>
       </c>
       <c r="F5" t="n">
-        <v>135732.9610000292</v>
+        <v>135732.961</v>
       </c>
       <c r="G5" t="n">
-        <v>135732.9610000294</v>
+        <v>135732.961</v>
       </c>
       <c r="H5" t="n">
-        <v>135732.9610000294</v>
+        <v>135732.961</v>
       </c>
       <c r="I5" t="n">
-        <v>135732.9610000294</v>
+        <v>135732.961</v>
       </c>
       <c r="J5" t="n">
-        <v>135732.9610000297</v>
+        <v>135732.961</v>
       </c>
       <c r="K5" t="n">
-        <v>135732.9610000016</v>
+        <v>135732.961</v>
       </c>
       <c r="L5" t="n">
-        <v>135732.9610000016</v>
+        <v>135732.961</v>
       </c>
       <c r="M5" t="n">
-        <v>135732.9610000014</v>
+        <v>135732.961</v>
       </c>
       <c r="N5" t="n">
-        <v>135732.9610000014</v>
+        <v>135732.961</v>
       </c>
       <c r="O5" t="n">
-        <v>135732.9610000012</v>
+        <v>135732.961</v>
       </c>
       <c r="P5" t="n">
         <v>129932.2</v>
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911944.7747360697</v>
+        <v>-911944.7747360703</v>
       </c>
       <c r="C6" t="n">
-        <v>683656.3221341567</v>
+        <v>683656.3221341574</v>
       </c>
       <c r="D6" t="n">
-        <v>684171.1164088768</v>
+        <v>684171.1164088766</v>
       </c>
       <c r="E6" t="n">
-        <v>671728.3108097948</v>
+        <v>671728.3108097141</v>
       </c>
       <c r="F6" t="n">
-        <v>633538.2701896055</v>
+        <v>633538.2701897983</v>
       </c>
       <c r="G6" t="n">
-        <v>688992.3561345054</v>
+        <v>688992.3561344186</v>
       </c>
       <c r="H6" t="n">
-        <v>689246.7947359207</v>
+        <v>689246.7947358311</v>
       </c>
       <c r="I6" t="n">
-        <v>689501.5885377508</v>
+        <v>689501.5885376607</v>
       </c>
       <c r="J6" t="n">
-        <v>62844.74011683938</v>
+        <v>62844.7401168689</v>
       </c>
       <c r="K6" t="n">
-        <v>634812.252084383</v>
+        <v>634812.2520843939</v>
       </c>
       <c r="L6" t="n">
-        <v>690268.127085784</v>
+        <v>690268.1270857785</v>
       </c>
       <c r="M6" t="n">
-        <v>690524.3678018904</v>
+        <v>690524.3678018842</v>
       </c>
       <c r="N6" t="n">
-        <v>690780.9769495304</v>
+        <v>690780.9769495315</v>
       </c>
       <c r="O6" t="n">
-        <v>691037.9572822205</v>
+        <v>691037.9572822214</v>
       </c>
       <c r="P6" t="n">
-        <v>671728.3108097143</v>
+        <v>671728.3108097146</v>
       </c>
     </row>
   </sheetData>
@@ -26827,34 +26827,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26919,19 +26919,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1780.999999999998</v>
+        <v>1781</v>
       </c>
       <c r="C4" t="n">
-        <v>1780.999999999998</v>
+        <v>1781</v>
       </c>
       <c r="D4" t="n">
-        <v>1780.999999999998</v>
+        <v>1781</v>
       </c>
       <c r="E4" t="n">
-        <v>1780.999999999998</v>
+        <v>1781</v>
       </c>
       <c r="F4" t="n">
-        <v>1780.999999999998</v>
+        <v>1781</v>
       </c>
       <c r="G4" t="n">
         <v>1781</v>
@@ -26943,19 +26943,19 @@
         <v>1781</v>
       </c>
       <c r="J4" t="n">
-        <v>1781.000000000006</v>
+        <v>1781</v>
       </c>
       <c r="K4" t="n">
-        <v>1781.000000000006</v>
+        <v>1781</v>
       </c>
       <c r="L4" t="n">
-        <v>1781.000000000006</v>
+        <v>1781</v>
       </c>
       <c r="M4" t="n">
-        <v>1781.000000000003</v>
+        <v>1781</v>
       </c>
       <c r="N4" t="n">
-        <v>1781.000000000003</v>
+        <v>1781</v>
       </c>
       <c r="O4" t="n">
         <v>1781</v>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>69.00000000034613</v>
+        <v>69</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>69.00000000001387</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27301,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1780.999999999998</v>
+        <v>1781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06144580051324056</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27556,7 +27556,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1186541046871525</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>347.9376868977026</v>
@@ -27599,16 +27599,16 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>224.4083212623441</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>143.5881783441787</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27647,10 +27647,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W3" t="n">
-        <v>74.79991616419608</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27793,7 +27793,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1186541046871525</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27808,7 +27808,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06144580051341109</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27833,19 +27833,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>63.26972130887941</v>
       </c>
       <c r="F6" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>172.3460081600468</v>
+        <v>323.6036490825745</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>143.5881783441787</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27881,13 +27881,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>400</v>
-      </c>
-      <c r="V6" t="n">
-        <v>400</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27927,10 +27927,10 @@
         <v>122.783553980774</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>135.9854847246092</v>
       </c>
       <c r="K7" t="n">
-        <v>216.4646191814899</v>
+        <v>80.47913445688081</v>
       </c>
       <c r="L7" t="n">
         <v>157.3259560266316</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28030,7 +28030,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0614458005132974</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.90570514383199</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -28070,19 +28070,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>47.82627795520642</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>323.6036490825745</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>143.5881783441787</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28115,13 +28115,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>396.7486425760044</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>400</v>
       </c>
       <c r="V9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28219,25 +28219,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28267,28 +28267,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.492459654808047e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28459,7 +28459,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.1800999051906729</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28504,10 +28504,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06144580051352477</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28535,76 +28535,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -28614,76 +28614,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -28702,10 +28702,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1800999051909571</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06144580051358162</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28741,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -28772,76 +28772,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -28851,76 +28851,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -28948,7 +28948,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06144580051341109</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28981,7 +28981,7 @@
         <v>0.1186541046763523</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.06144580050994364</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29009,76 +29009,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>69.00000000046568</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -29088,76 +29088,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29215,10 +29215,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06144580051352477</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29246,76 +29246,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -29325,76 +29325,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.00000000034926</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1800999051679923</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29452,10 +29452,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.1186541046781713</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.06144580051352477</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29644,7 +29644,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.1800999051906729</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06144580049220849</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29689,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -29720,76 +29720,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="C30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="D30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="I30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="J30" t="n">
-        <v>69.00000000003642</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="K30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="L30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="M30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="O30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="P30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="S30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="T30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="U30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="X30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
     </row>
     <row r="31">
@@ -29799,76 +29799,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="C31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="D31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="E31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="F31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="G31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="H31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="I31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="J31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="K31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="L31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="M31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="N31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="O31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="P31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="R31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="S31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="T31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="U31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="V31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="W31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="X31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000001459</v>
       </c>
     </row>
     <row r="32">
@@ -29890,13 +29890,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1800999051679923</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29957,76 +29957,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>69.00000000002912</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -30036,76 +30036,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -30130,7 +30130,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06144580050289505</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30163,7 +30163,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -30194,76 +30194,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -30273,76 +30273,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="N37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="S37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="U37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="W37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="X37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.00000000001457</v>
+        <v>69.00000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -30358,7 +30358,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.1800999051907297</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30400,10 +30400,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1186541046763523</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.06144580050454351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30595,7 +30595,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06144580051335424</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30637,10 +30637,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1186541046763523</v>
+        <v>0.1186541046781713</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.06144580051352477</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31186,7 +31186,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>549.6430714907754</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M2" t="n">
         <v>700.9532110552764</v>
@@ -31417,13 +31417,13 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J5" t="n">
-        <v>338.8125979899498</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>245.8734797459159</v>
+        <v>629.9611959798996</v>
       </c>
       <c r="M5" t="n">
         <v>700.9532110552764</v>
@@ -31654,16 +31654,16 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>255.4956020630826</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>549.6430714907863</v>
+        <v>629.9611959798996</v>
       </c>
       <c r="M8" t="n">
-        <v>700.9532110552764</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>712.2953668341709</v>
@@ -31891,7 +31891,7 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>338.8125979899498</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -31900,7 +31900,7 @@
         <v>629.9611959798996</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N11" t="n">
         <v>712.2953668341709</v>
@@ -32128,16 +32128,16 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J14" t="n">
-        <v>338.8125979899498</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>629.9611959798996</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>700.9532110552764</v>
       </c>
       <c r="N14" t="n">
         <v>712.2953668341709</v>
@@ -32374,13 +32374,13 @@
         <v>629.9611959798996</v>
       </c>
       <c r="M17" t="n">
-        <v>700.9532110552764</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>712.2953668341709</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>70.24786957409245</v>
+        <v>672.6003165829146</v>
       </c>
       <c r="P17" t="n">
         <v>574.0488090452261</v>
@@ -32608,7 +32608,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>245.8734797459267</v>
+        <v>245.8734797459305</v>
       </c>
       <c r="M20" t="n">
         <v>700.9532110552764</v>
@@ -32839,13 +32839,13 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J23" t="n">
-        <v>338.8125979899498</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>507.792256281407</v>
+        <v>215.8728451290639</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>629.9611959798996</v>
       </c>
       <c r="M23" t="n">
         <v>544.2621276423173</v>
@@ -33076,16 +33076,16 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J26" t="n">
-        <v>338.8125979899498</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>67.03277206777216</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>629.9611959798996</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>700.9532110552764</v>
       </c>
       <c r="N26" t="n">
         <v>712.2953668341709</v>
@@ -33313,16 +33313,16 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J29" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>629.9611959798996</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M29" t="n">
-        <v>620.6350865661843</v>
+        <v>700.9532110552764</v>
       </c>
       <c r="N29" t="n">
         <v>712.2953668341709</v>
@@ -33556,7 +33556,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>154.3813411497413</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M32" t="n">
         <v>700.9532110552764</v>
@@ -33787,13 +33787,13 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J35" t="n">
-        <v>154.3813411497305</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M35" t="n">
         <v>700.9532110552764</v>
@@ -34024,13 +34024,13 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J38" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>549.643071490797</v>
+        <v>629.9611959798996</v>
       </c>
       <c r="M38" t="n">
         <v>700.9532110552764</v>
@@ -34261,7 +34261,7 @@
         <v>153.9000301507538</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -34270,7 +34270,7 @@
         <v>629.9611959798996</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>700.9532110552764</v>
       </c>
       <c r="N41" t="n">
         <v>712.2953668341709</v>
@@ -34504,7 +34504,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>549.643071490786</v>
+        <v>629.9611959798996</v>
       </c>
       <c r="M44" t="n">
         <v>700.9532110552764</v>
@@ -34834,7 +34834,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>549.6430714907754</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M2" t="n">
         <v>1216.962128963291</v>
@@ -35065,19 +35065,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>303.7695917448594</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>245.8734797459159</v>
+        <v>1546.152604636084</v>
       </c>
       <c r="M5" t="n">
         <v>1216.962128963291</v>
       </c>
       <c r="N5" t="n">
-        <v>1331.709831253124</v>
+        <v>335.2002981078243</v>
       </c>
       <c r="O5" t="n">
         <v>1635.269552968729</v>
@@ -35223,10 +35223,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>91.33041181982992</v>
+        <v>227.3158965444391</v>
       </c>
       <c r="K7" t="n">
-        <v>135.9854847246091</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35302,16 +35302,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>220.4525958179922</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>549.6430714907863</v>
+        <v>1546.152604636084</v>
       </c>
       <c r="M8" t="n">
-        <v>1216.962128963291</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>1331.709831253124</v>
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>303.7695917448594</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1250.596282546051</v>
+        <v>1462.835608709217</v>
       </c>
       <c r="M11" t="n">
-        <v>516.0089179080152</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1331.709831253124</v>
@@ -35776,16 +35776,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>303.7695917448594</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>946.8266908012031</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M14" t="n">
-        <v>516.0089179080152</v>
+        <v>1216.962128963291</v>
       </c>
       <c r="N14" t="n">
         <v>1331.709831253124</v>
@@ -35855,28 +35855,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>396.0030685021759</v>
+        <v>396.0030685018267</v>
       </c>
       <c r="K15" t="n">
-        <v>605.0027319996311</v>
+        <v>605.0027319992819</v>
       </c>
       <c r="L15" t="n">
-        <v>806.8504791226212</v>
+        <v>806.850479122272</v>
       </c>
       <c r="M15" t="n">
-        <v>697.1350421648535</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.1351067127778</v>
+        <v>759.1351067124285</v>
       </c>
       <c r="O15" t="n">
-        <v>818.6388237898882</v>
+        <v>818.6388237895389</v>
       </c>
       <c r="P15" t="n">
-        <v>590.52670262821</v>
+        <v>590.5267026278608</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.5648103815678</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35934,7 +35934,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>160.3304118201792</v>
+        <v>160.3304118198299</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -36016,25 +36016,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1224.667373804507</v>
+        <v>1224.667373804506</v>
       </c>
       <c r="L17" t="n">
         <v>1546.152604636084</v>
       </c>
       <c r="M17" t="n">
-        <v>1216.962128963291</v>
+        <v>327.495053266609</v>
       </c>
       <c r="N17" t="n">
-        <v>1331.709831253124</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1635.269552968729</v>
       </c>
       <c r="P17" t="n">
         <v>1444.339681678668</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.2087837047323</v>
+        <v>874.1161376858068</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36092,28 +36092,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>396.0030685021759</v>
+        <v>396.0030685018267</v>
       </c>
       <c r="K18" t="n">
-        <v>605.0027319996311</v>
+        <v>605.0027319992819</v>
       </c>
       <c r="L18" t="n">
-        <v>806.8504791226212</v>
+        <v>806.850479122272</v>
       </c>
       <c r="M18" t="n">
-        <v>697.1350421648535</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N18" t="n">
-        <v>759.1351067127778</v>
+        <v>759.1351067124285</v>
       </c>
       <c r="O18" t="n">
-        <v>818.6388237898882</v>
+        <v>818.6388237895389</v>
       </c>
       <c r="P18" t="n">
-        <v>590.52670262821</v>
+        <v>590.5267026278608</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.5648103815678</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36171,7 +36171,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>160.3304118201792</v>
+        <v>160.3304118198299</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -36256,7 +36256,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>245.8734797459267</v>
+        <v>245.8734797459305</v>
       </c>
       <c r="M20" t="n">
         <v>1216.962128963291</v>
@@ -36329,28 +36329,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>396.0030685021759</v>
+        <v>396.0030685018267</v>
       </c>
       <c r="K21" t="n">
-        <v>605.0027319996311</v>
+        <v>605.0027319992819</v>
       </c>
       <c r="L21" t="n">
-        <v>806.8504791226212</v>
+        <v>806.850479122272</v>
       </c>
       <c r="M21" t="n">
-        <v>697.1350421649699</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N21" t="n">
-        <v>759.1351067127778</v>
+        <v>759.1351067124285</v>
       </c>
       <c r="O21" t="n">
-        <v>818.6388237898882</v>
+        <v>818.6388237895389</v>
       </c>
       <c r="P21" t="n">
-        <v>590.52670262821</v>
+        <v>590.5267026278608</v>
       </c>
       <c r="Q21" t="n">
-        <v>168.5648103815678</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36408,7 +36408,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>160.3304118201792</v>
+        <v>160.3304118198299</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -36487,13 +36487,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>734.0743283310162</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1224.667373804507</v>
+        <v>932.7479626521631</v>
       </c>
       <c r="L23" t="n">
-        <v>520.1588651527259</v>
+        <v>1546.152604636084</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36566,28 +36566,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>396.0030685021759</v>
+        <v>396.0030685018267</v>
       </c>
       <c r="K24" t="n">
-        <v>605.0027319996311</v>
+        <v>605.0027319992819</v>
       </c>
       <c r="L24" t="n">
-        <v>806.8504791226212</v>
+        <v>806.850479122272</v>
       </c>
       <c r="M24" t="n">
-        <v>697.1350421648535</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N24" t="n">
-        <v>759.1351067127778</v>
+        <v>759.1351067124285</v>
       </c>
       <c r="O24" t="n">
-        <v>818.6388237898882</v>
+        <v>818.6388237895388</v>
       </c>
       <c r="P24" t="n">
-        <v>590.52670262821</v>
+        <v>590.5267026278608</v>
       </c>
       <c r="Q24" t="n">
-        <v>168.5648103815678</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36645,7 +36645,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>160.3304118201792</v>
+        <v>160.3304118198299</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -36724,19 +36724,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>734.0743283310162</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>67.03277206777216</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1546.152604636084</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M26" t="n">
-        <v>516.0089179080152</v>
+        <v>1216.962128963291</v>
       </c>
       <c r="N26" t="n">
-        <v>235.0464087643356</v>
+        <v>1331.709831253124</v>
       </c>
       <c r="O26" t="n">
         <v>1635.269552968729</v>
@@ -36967,10 +36967,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>629.9611959798996</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M29" t="n">
-        <v>1136.644004474199</v>
+        <v>1216.962128963291</v>
       </c>
       <c r="N29" t="n">
         <v>1331.709831253124</v>
@@ -37040,7 +37040,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>396.0030685018631</v>
+        <v>396.0030685018413</v>
       </c>
       <c r="K30" t="n">
         <v>605.0027319992964</v>
@@ -37049,7 +37049,7 @@
         <v>806.8504791222865</v>
       </c>
       <c r="M30" t="n">
-        <v>697.1350421645188</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N30" t="n">
         <v>759.1351067124431</v>
@@ -37061,7 +37061,7 @@
         <v>590.5267026278754</v>
       </c>
       <c r="Q30" t="n">
-        <v>168.5648103812331</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37198,13 +37198,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.2617303410664</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>154.3813411497413</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M32" t="n">
         <v>1216.962128963291</v>
@@ -37277,28 +37277,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>396.0030685018558</v>
+        <v>396.0030685018267</v>
       </c>
       <c r="K33" t="n">
-        <v>605.0027319992964</v>
+        <v>605.0027319992819</v>
       </c>
       <c r="L33" t="n">
-        <v>806.8504791222865</v>
+        <v>806.850479122272</v>
       </c>
       <c r="M33" t="n">
-        <v>697.1350421645188</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N33" t="n">
-        <v>759.1351067124431</v>
+        <v>759.1351067124285</v>
       </c>
       <c r="O33" t="n">
-        <v>818.6388237895535</v>
+        <v>818.6388237895389</v>
       </c>
       <c r="P33" t="n">
-        <v>590.5267026278754</v>
+        <v>590.5267026278608</v>
       </c>
       <c r="Q33" t="n">
-        <v>168.5648103812331</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37356,7 +37356,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>160.3304118198445</v>
+        <v>160.3304118198299</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37435,13 +37435,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>549.643071490797</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>549.6430714907843</v>
       </c>
       <c r="M35" t="n">
         <v>1216.962128963291</v>
@@ -37514,28 +37514,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>396.0030685018413</v>
+        <v>396.0030685018267</v>
       </c>
       <c r="K36" t="n">
-        <v>605.0027319992964</v>
+        <v>605.0027319992819</v>
       </c>
       <c r="L36" t="n">
-        <v>806.8504791222865</v>
+        <v>806.850479122272</v>
       </c>
       <c r="M36" t="n">
-        <v>697.1350421645188</v>
+        <v>697.1350421645043</v>
       </c>
       <c r="N36" t="n">
-        <v>759.1351067124431</v>
+        <v>759.1351067124285</v>
       </c>
       <c r="O36" t="n">
-        <v>818.6388237895535</v>
+        <v>818.6388237895388</v>
       </c>
       <c r="P36" t="n">
-        <v>590.5267026278754</v>
+        <v>590.5267026278608</v>
       </c>
       <c r="Q36" t="n">
-        <v>168.5648103812331</v>
+        <v>168.5648103812186</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37593,7 +37593,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>160.3304118198445</v>
+        <v>160.3304118198299</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37678,10 +37678,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>549.643071490797</v>
+        <v>1546.152604636084</v>
       </c>
       <c r="M38" t="n">
-        <v>1216.962128963291</v>
+        <v>220.4525958179919</v>
       </c>
       <c r="N38" t="n">
         <v>1331.709831253124</v>
@@ -37918,7 +37918,7 @@
         <v>1546.152604636084</v>
       </c>
       <c r="M41" t="n">
-        <v>220.4525958179937</v>
+        <v>220.4525958179919</v>
       </c>
       <c r="N41" t="n">
         <v>1331.709831253124</v>
@@ -38003,7 +38003,7 @@
         <v>759.1351067124285</v>
       </c>
       <c r="O42" t="n">
-        <v>818.6388237895389</v>
+        <v>818.6388237895388</v>
       </c>
       <c r="P42" t="n">
         <v>590.5267026278608</v>
@@ -38152,10 +38152,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>549.643071490786</v>
+        <v>1546.152604636084</v>
       </c>
       <c r="M44" t="n">
-        <v>1216.962128963291</v>
+        <v>220.4525958179919</v>
       </c>
       <c r="N44" t="n">
         <v>1331.709831253124</v>
